--- a/calificaciones3.xlsx
+++ b/calificaciones3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DB0BE-E837-44CA-921C-F0379E9494A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A7540-E07E-491A-A868-50F7D10F31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,6 +1504,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,9 +1646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3189,123 +3189,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
     </row>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="183" t="s">
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
@@ -3320,25 +3320,25 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="183" t="s">
+      <c r="E7" s="184"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
@@ -3355,41 +3355,41 @@
     <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="178" t="s">
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="178" t="s">
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="178" t="s">
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="179"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="178" t="s">
+      <c r="U9" s="180"/>
+      <c r="V9" s="180"/>
+      <c r="W9" s="180"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="180"/>
+      <c r="Z9" s="180"/>
+      <c r="AA9" s="180"/>
+      <c r="AB9" s="180"/>
+      <c r="AC9" s="181"/>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
@@ -4620,96 +4620,96 @@
   <sheetData>
     <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="203"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="206"/>
     </row>
     <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="209"/>
     </row>
     <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4740,27 +4740,27 @@
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="181"/>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -5304,24 +5304,24 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="J28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="200"/>
+      <c r="O28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="200"/>
     </row>
     <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -5407,60 +5407,60 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="190"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="195"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
@@ -5489,13 +5489,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="181"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
@@ -5646,12 +5646,12 @@
     </row>
     <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="197" t="s">
+      <c r="D21" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
@@ -5734,76 +5734,76 @@
   <sheetData>
     <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="209"/>
     </row>
     <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5828,20 +5828,20 @@
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6179,18 +6179,18 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="J28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="200"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6283,56 +6283,56 @@
   <sheetData>
     <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="203"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="206"/>
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="209"/>
     </row>
     <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6355,13 +6355,13 @@
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6609,12 +6609,12 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6697,116 +6697,116 @@
   <sheetData>
     <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="203"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="206"/>
     </row>
     <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="209"/>
     </row>
     <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
     </row>
     <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -6835,34 +6835,34 @@
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
+      <c r="U10" s="180"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="181"/>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -7380,30 +7380,30 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="J28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="200"/>
+      <c r="O28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="200"/>
+      <c r="T28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="200"/>
     </row>
     <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -7451,16 +7451,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7516,167 +7516,167 @@
   <sheetData>
     <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="203"/>
     </row>
     <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="205"/>
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="205"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="205"/>
+      <c r="AJ3" s="206"/>
     </row>
     <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207"/>
-      <c r="AJ4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="209"/>
     </row>
     <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="212"/>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="212"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="212"/>
-      <c r="AF7" s="212"/>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="212"/>
-      <c r="AI7" s="212"/>
-      <c r="AJ7" s="212"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="213"/>
+      <c r="AA7" s="213"/>
+      <c r="AB7" s="213"/>
+      <c r="AC7" s="213"/>
+      <c r="AD7" s="213"/>
+      <c r="AE7" s="213"/>
+      <c r="AF7" s="213"/>
+      <c r="AG7" s="213"/>
+      <c r="AH7" s="213"/>
+      <c r="AI7" s="213"/>
+      <c r="AJ7" s="213"/>
     </row>
     <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="215"/>
     </row>
     <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
@@ -7694,48 +7694,48 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="209" t="s">
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="209" t="s">
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="209" t="s">
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="209" t="s">
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="209" t="s">
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="211"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="211"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="211"/>
+      <c r="AG10" s="211"/>
+      <c r="AH10" s="212"/>
     </row>
     <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
@@ -8433,42 +8433,42 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="J28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="200"/>
+      <c r="O28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="200"/>
+      <c r="T28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
-      <c r="Y28" s="197" t="s">
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="200"/>
+      <c r="Y28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="199"/>
-      <c r="AD28" s="197" t="s">
+      <c r="Z28" s="199"/>
+      <c r="AA28" s="199"/>
+      <c r="AB28" s="200"/>
+      <c r="AD28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="199"/>
+      <c r="AE28" s="199"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="200"/>
     </row>
     <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -8603,174 +8603,174 @@
   <sheetData>
     <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="216"/>
-      <c r="AD2" s="216"/>
-      <c r="AE2" s="216"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="216"/>
-      <c r="AN2" s="216"/>
-      <c r="AO2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="217"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="217"/>
+      <c r="AK2" s="217"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
+      <c r="AO2" s="218"/>
     </row>
     <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="218"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="219"/>
-      <c r="AG3" s="219"/>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="219"/>
-      <c r="AJ3" s="219"/>
-      <c r="AK3" s="219"/>
-      <c r="AL3" s="219"/>
-      <c r="AM3" s="219"/>
-      <c r="AN3" s="219"/>
-      <c r="AO3" s="220"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="220"/>
+      <c r="AB3" s="220"/>
+      <c r="AC3" s="220"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="220"/>
+      <c r="AH3" s="220"/>
+      <c r="AI3" s="220"/>
+      <c r="AJ3" s="220"/>
+      <c r="AK3" s="220"/>
+      <c r="AL3" s="220"/>
+      <c r="AM3" s="220"/>
+      <c r="AN3" s="220"/>
+      <c r="AO3" s="221"/>
     </row>
     <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="221"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
-      <c r="W4" s="222"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="222"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-      <c r="AF4" s="222"/>
-      <c r="AG4" s="222"/>
-      <c r="AH4" s="222"/>
-      <c r="AI4" s="222"/>
-      <c r="AJ4" s="222"/>
-      <c r="AK4" s="222"/>
-      <c r="AL4" s="222"/>
-      <c r="AM4" s="222"/>
-      <c r="AN4" s="222"/>
-      <c r="AO4" s="223"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="223"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="223"/>
+      <c r="AI4" s="223"/>
+      <c r="AJ4" s="223"/>
+      <c r="AK4" s="223"/>
+      <c r="AL4" s="223"/>
+      <c r="AM4" s="223"/>
+      <c r="AN4" s="223"/>
+      <c r="AO4" s="224"/>
     </row>
     <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="212"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="212"/>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
-      <c r="U6" s="212"/>
-      <c r="V6" s="212"/>
-      <c r="W6" s="212"/>
-      <c r="X6" s="212"/>
-      <c r="Y6" s="212"/>
-      <c r="Z6" s="212"/>
-      <c r="AA6" s="212"/>
-      <c r="AB6" s="212"/>
-      <c r="AC6" s="212"/>
-      <c r="AD6" s="212"/>
-      <c r="AE6" s="212"/>
-      <c r="AF6" s="212"/>
-      <c r="AG6" s="212"/>
-      <c r="AH6" s="212"/>
-      <c r="AI6" s="212"/>
-      <c r="AJ6" s="212"/>
-      <c r="AK6" s="212"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="213"/>
+      <c r="S6" s="213"/>
+      <c r="T6" s="213"/>
+      <c r="U6" s="213"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="213"/>
+      <c r="AD6" s="213"/>
+      <c r="AE6" s="213"/>
+      <c r="AF6" s="213"/>
+      <c r="AG6" s="213"/>
+      <c r="AH6" s="213"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
+      <c r="AK6" s="213"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
@@ -8804,55 +8804,55 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="209" t="s">
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="209" t="s">
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="209" t="s">
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="209" t="s">
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="209" t="s">
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="211"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="209" t="s">
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="211"/>
+      <c r="AG10" s="211"/>
+      <c r="AH10" s="212"/>
+      <c r="AI10" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="210"/>
-      <c r="AK10" s="210"/>
-      <c r="AL10" s="210"/>
-      <c r="AM10" s="211"/>
+      <c r="AJ10" s="211"/>
+      <c r="AK10" s="211"/>
+      <c r="AL10" s="211"/>
+      <c r="AM10" s="212"/>
     </row>
     <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
@@ -9640,48 +9640,48 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="J28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="200"/>
+      <c r="O28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="200"/>
+      <c r="T28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
-      <c r="Y28" s="197" t="s">
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="200"/>
+      <c r="Y28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="199"/>
-      <c r="AD28" s="197" t="s">
+      <c r="Z28" s="199"/>
+      <c r="AA28" s="199"/>
+      <c r="AB28" s="200"/>
+      <c r="AD28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="199"/>
-      <c r="AI28" s="197" t="s">
+      <c r="AE28" s="199"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="200"/>
+      <c r="AI28" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="198"/>
-      <c r="AK28" s="198"/>
-      <c r="AL28" s="199"/>
+      <c r="AJ28" s="199"/>
+      <c r="AK28" s="199"/>
+      <c r="AL28" s="200"/>
     </row>
     <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -9753,6 +9753,13 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9762,13 +9769,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9837,136 +9837,136 @@
   <sheetData>
     <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="203"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="205"/>
+      <c r="AE3" s="206"/>
     </row>
     <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="209"/>
     </row>
     <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
     </row>
     <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9997,41 +9997,41 @@
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="178" t="s">
+      <c r="U10" s="180"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="180"/>
+      <c r="Z10" s="180"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="180"/>
+      <c r="AC10" s="181"/>
     </row>
     <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="225">
+      <c r="B15" s="178">
         <v>4</v>
       </c>
       <c r="C15" s="140"/>
@@ -10661,36 +10661,36 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="197" t="s">
+      <c r="E26" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
-      <c r="J26" s="197" t="s">
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="200"/>
+      <c r="J26" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="199"/>
-      <c r="O26" s="197" t="s">
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="200"/>
+      <c r="O26" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="198"/>
-      <c r="Q26" s="198"/>
-      <c r="R26" s="199"/>
-      <c r="T26" s="197" t="s">
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="200"/>
+      <c r="T26" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="198"/>
-      <c r="V26" s="198"/>
-      <c r="W26" s="199"/>
-      <c r="Y26" s="197" t="s">
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="200"/>
+      <c r="Y26" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="Z26" s="198"/>
-      <c r="AA26" s="198"/>
-      <c r="AB26" s="199"/>
+      <c r="Z26" s="199"/>
+      <c r="AA26" s="199"/>
+      <c r="AB26" s="200"/>
     </row>
     <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" s="41"/>
@@ -10749,11 +10749,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -10761,6 +10756,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE15">
@@ -10849,140 +10849,140 @@
   <sheetData>
     <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="205"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="205"/>
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="206"/>
     </row>
     <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="209"/>
     </row>
     <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
     </row>
     <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11018,42 +11018,42 @@
     <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="178" t="s">
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="178" t="s">
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="180"/>
-      <c r="U10" s="178" t="s">
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="180"/>
-      <c r="Z10" s="178" t="s">
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="179"/>
-      <c r="AD10" s="180"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="180"/>
+      <c r="AC10" s="180"/>
+      <c r="AD10" s="181"/>
     </row>
     <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -12009,37 +12009,37 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="197" t="s">
+      <c r="E29" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="199"/>
-      <c r="K29" s="197" t="s">
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="200"/>
+      <c r="K29" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="199"/>
-      <c r="P29" s="197" t="s">
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="200"/>
+      <c r="P29" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="199"/>
-      <c r="U29" s="197" t="s">
+      <c r="Q29" s="199"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="200"/>
+      <c r="U29" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="198"/>
-      <c r="W29" s="198"/>
-      <c r="X29" s="199"/>
-      <c r="Z29" s="197" t="s">
+      <c r="V29" s="199"/>
+      <c r="W29" s="199"/>
+      <c r="X29" s="200"/>
+      <c r="Z29" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="199"/>
+      <c r="AA29" s="199"/>
+      <c r="AB29" s="199"/>
+      <c r="AC29" s="200"/>
     </row>
     <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>

--- a/calificaciones3.xlsx
+++ b/calificaciones3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARGOTH BARRERA\Desktop\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A7540-E07E-491A-A868-50F7D10F31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16665" windowHeight="9465" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="SABADOS MAÑANA" sheetId="5" r:id="rId9"/>
     <sheet name="LUNES-VIERNES" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -239,9 +238,6 @@
     <t>REGISTRO DE NOTAS DE RPARACIÓN DE COMPUTADORAS</t>
   </si>
   <si>
-    <t>PR 5</t>
-  </si>
-  <si>
     <t>VERPERTINO</t>
   </si>
   <si>
@@ -311,11 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,13 +564,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1138,11 +1124,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1406,9 +1391,6 @@
     <xf numFmtId="2" fontId="35" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1645,12 +1627,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -2899,23 +2880,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2951,23 +2915,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3143,7 +3090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3153,161 +3100,161 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.23046875" customWidth="1"/>
-    <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.53515625" customWidth="1"/>
-    <col min="33" max="33" width="4.4609375" customWidth="1"/>
-    <col min="34" max="34" width="4.53515625" customWidth="1"/>
-    <col min="35" max="35" width="4.15234375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" customWidth="1"/>
     <col min="36" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="4.69140625" customWidth="1"/>
-    <col min="39" max="39" width="5.23046875" customWidth="1"/>
-    <col min="40" max="40" width="4.4609375" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.42578125" customWidth="1"/>
     <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="4.23046875" customWidth="1"/>
-    <col min="43" max="43" width="4.69140625" customWidth="1"/>
-    <col min="44" max="44" width="4.53515625" customWidth="1"/>
-    <col min="45" max="46" width="4.15234375" customWidth="1"/>
-    <col min="47" max="47" width="4.69140625" customWidth="1"/>
-    <col min="48" max="48" width="5.53515625" customWidth="1"/>
-    <col min="49" max="49" width="4.4609375" customWidth="1"/>
-    <col min="50" max="50" width="3.84375" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" customWidth="1"/>
+    <col min="45" max="46" width="4.140625" customWidth="1"/>
+    <col min="47" max="47" width="4.7109375" customWidth="1"/>
+    <col min="48" max="48" width="5.5703125" customWidth="1"/>
+    <col min="49" max="49" width="4.42578125" customWidth="1"/>
+    <col min="50" max="50" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-    </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="184" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1">
+      <c r="B1" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+    </row>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="D5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="184" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
+    </row>
+    <row r="6" spans="2:31">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3319,28 +3266,28 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="184" t="s">
+    <row r="7" spans="2:31">
+      <c r="D7" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="184" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-    </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.75" thickBot="1">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3352,46 +3299,46 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15.75" thickBot="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="179" t="s">
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="179" t="s">
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="179" t="s">
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="180"/>
-      <c r="V9" s="180"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="179" t="s">
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="180"/>
+      <c r="Y9" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="180"/>
-      <c r="AC9" s="181"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="180"/>
+    </row>
+    <row r="10" spans="2:31" ht="15.75" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3481,7 +3428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15.75" thickBot="1">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3533,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="15.75" thickBot="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3585,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="15.75" thickBot="1">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3637,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="15.75" thickBot="1">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3689,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="15.75" thickBot="1">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3741,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="15.75" thickBot="1">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3793,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="15.75" thickBot="1">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3845,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="15.75" thickBot="1">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3897,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="15.75" thickBot="1">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -3949,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="15.75" thickBot="1">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4001,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="15.75" thickBot="1">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4053,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="15.75" thickBot="1">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4105,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="15.75" thickBot="1">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4157,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="15.75" thickBot="1">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4209,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15.75" thickBot="1">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4261,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="15.75" thickBot="1">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4313,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="15.75" thickBot="1">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4365,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15.75" thickBot="1">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4417,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="15.75" thickBot="1">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4469,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="15.75" thickBot="1">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4521,22 +4468,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:7">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:7">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:7">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4558,7 +4505,7 @@
     <mergeCell ref="T9:X9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:R30 E11:H30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:R30 E11:H30">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -4570,7 +4517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4580,144 +4527,144 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.23046875" customWidth="1"/>
-    <col min="5" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.61328125" customWidth="1"/>
-    <col min="19" max="19" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.69140625" customWidth="1"/>
-    <col min="21" max="21" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.53515625" customWidth="1"/>
-    <col min="23" max="23" width="4.4609375" customWidth="1"/>
-    <col min="24" max="24" width="4.53515625" customWidth="1"/>
-    <col min="25" max="25" width="4.15234375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="25" width="4.140625" customWidth="1"/>
     <col min="26" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.69140625" customWidth="1"/>
-    <col min="29" max="29" width="5.23046875" customWidth="1"/>
-    <col min="30" max="30" width="4.4609375" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="4.23046875" customWidth="1"/>
-    <col min="33" max="33" width="4.69140625" customWidth="1"/>
-    <col min="34" max="34" width="4.53515625" customWidth="1"/>
-    <col min="35" max="36" width="4.15234375" customWidth="1"/>
-    <col min="37" max="37" width="4.69140625" customWidth="1"/>
-    <col min="38" max="38" width="5.53515625" customWidth="1"/>
-    <col min="39" max="39" width="4.4609375" customWidth="1"/>
-    <col min="40" max="40" width="3.84375" customWidth="1"/>
+    <col min="32" max="32" width="4.28515625" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" customWidth="1"/>
+    <col min="38" max="38" width="5.5703125" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" customWidth="1"/>
+    <col min="40" max="40" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="203"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="206"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="209"/>
-    </row>
-    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="202"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="205"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="208"/>
+    </row>
+    <row r="6" spans="2:21" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4725,7 +4672,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4737,32 +4684,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="179" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="181"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4822,15 +4769,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="106">
         <v>10</v>
@@ -4876,15 +4823,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="112">
         <v>10</v>
@@ -4930,15 +4877,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
       <c r="C14" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="128" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>59</v>
       </c>
       <c r="E14" s="112">
         <v>10</v>
@@ -4984,59 +4931,59 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="161" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="162" t="s">
+      <c r="C15" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="142">
+      <c r="D15" s="161" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="141">
         <v>10</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="142">
         <v>6</v>
       </c>
-      <c r="G15" s="143">
+      <c r="G15" s="142">
         <v>10</v>
       </c>
-      <c r="H15" s="144">
+      <c r="H15" s="143">
         <v>7.22</v>
       </c>
       <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
         <v>8.3049999999999997</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="144">
         <v>10</v>
       </c>
-      <c r="K15" s="146">
+      <c r="K15" s="145">
         <v>6</v>
       </c>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="146"/>
       <c r="N15" s="130">
         <f>AVERAGE(J15:M15)</f>
         <v>8</v>
       </c>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="162"/>
       <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165" t="e">
+      <c r="T15" s="163"/>
+      <c r="U15" s="164" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5060,7 +5007,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5084,7 +5031,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5108,7 +5055,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5132,7 +5079,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5156,7 +5103,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5180,7 +5127,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5204,7 +5151,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5228,7 +5175,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5252,7 +5199,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5276,7 +5223,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5300,30 +5247,30 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:21" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="J28" s="198" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="200"/>
-      <c r="O28" s="198" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="200"/>
-    </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+    </row>
+    <row r="29" spans="2:21" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5332,7 +5279,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5341,7 +5288,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5355,11 +5302,11 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21">
       <c r="G32"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:Q15">
+  <sortState ref="C12:Q15">
     <sortCondition ref="C12:C15"/>
   </sortState>
   <dataConsolidate/>
@@ -5384,7 +5331,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -5396,77 +5343,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC34F01-3C95-4B87-A8C6-5C2B07870A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="188" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="193"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="194"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="196"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="192"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="195"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="197" t="s">
+    <row r="6" spans="1:10" ht="26.25">
+      <c r="A6" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21.75" thickBot="1">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5478,26 +5425,26 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="181"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="180"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5529,7 +5476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5543,7 +5490,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5557,7 +5504,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="19.5" thickBot="1">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5571,7 +5518,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="19.5" thickBot="1">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5585,7 +5532,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="19.5" thickBot="1">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5599,7 +5546,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="19.5" thickBot="1">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5613,7 +5560,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="19.5" thickBot="1">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5627,7 +5574,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5641,36 +5588,36 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="19.5" thickBot="1">
       <c r="A21" s="49"/>
-      <c r="D21" s="198" t="s">
+      <c r="D21" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="200"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5681,7 +5628,7 @@
     <mergeCell ref="D21:G21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:G19" xr:uid="{4C96044F-948F-4048-952B-718755C8C61F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:G19">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -5693,7 +5640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5703,110 +5650,110 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.23046875" customWidth="1"/>
-    <col min="5" max="6" width="6.69140625" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" style="13" customWidth="1"/>
-    <col min="8" max="14" width="6.69140625" customWidth="1"/>
-    <col min="15" max="16" width="9.69140625" customWidth="1"/>
-    <col min="17" max="17" width="4.53515625" customWidth="1"/>
-    <col min="18" max="18" width="4.4609375" customWidth="1"/>
-    <col min="19" max="19" width="4.53515625" customWidth="1"/>
-    <col min="20" max="20" width="4.15234375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="13" customWidth="1"/>
+    <col min="8" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="4.69140625" customWidth="1"/>
-    <col min="24" max="24" width="5.23046875" customWidth="1"/>
-    <col min="25" max="25" width="4.4609375" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" customWidth="1"/>
     <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="4.23046875" customWidth="1"/>
-    <col min="28" max="28" width="4.69140625" customWidth="1"/>
-    <col min="29" max="29" width="4.53515625" customWidth="1"/>
-    <col min="30" max="31" width="4.15234375" customWidth="1"/>
-    <col min="32" max="32" width="4.69140625" customWidth="1"/>
-    <col min="33" max="33" width="5.53515625" customWidth="1"/>
-    <col min="34" max="34" width="4.4609375" customWidth="1"/>
-    <col min="35" max="35" width="3.84375" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" customWidth="1"/>
+    <col min="30" max="31" width="4.140625" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" customWidth="1"/>
+    <col min="34" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="209"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="208"/>
+    </row>
+    <row r="6" spans="2:16" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5817,7 +5764,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5825,25 +5772,25 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="181"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5890,7 +5837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5909,7 +5856,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5928,7 +5875,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5947,7 +5894,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5966,7 +5913,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5985,7 +5932,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6004,7 +5951,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6023,7 +5970,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6042,7 +5989,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6061,7 +6008,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6080,7 +6027,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6099,7 +6046,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6118,7 +6065,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6137,7 +6084,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6156,7 +6103,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6175,38 +6122,38 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:16" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="J28" s="198" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="200"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6216,7 +6163,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6230,7 +6177,7 @@
     <mergeCell ref="J10:N10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -6242,7 +6189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208550B-ECF3-43B7-B197-FD96AD074910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6252,90 +6199,90 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.23046875" customWidth="1"/>
-    <col min="5" max="6" width="6.69140625" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" style="13" customWidth="1"/>
-    <col min="8" max="9" width="6.69140625" customWidth="1"/>
-    <col min="10" max="11" width="9.69140625" customWidth="1"/>
-    <col min="12" max="12" width="4.53515625" customWidth="1"/>
-    <col min="13" max="13" width="4.4609375" customWidth="1"/>
-    <col min="14" max="14" width="4.53515625" customWidth="1"/>
-    <col min="15" max="15" width="4.15234375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="13" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
     <col min="16" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="4.69140625" customWidth="1"/>
-    <col min="19" max="19" width="5.23046875" customWidth="1"/>
-    <col min="20" max="20" width="4.4609375" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="4.23046875" customWidth="1"/>
-    <col min="23" max="23" width="4.69140625" customWidth="1"/>
-    <col min="24" max="24" width="4.53515625" customWidth="1"/>
-    <col min="25" max="26" width="4.15234375" customWidth="1"/>
-    <col min="27" max="27" width="4.69140625" customWidth="1"/>
-    <col min="28" max="28" width="5.53515625" customWidth="1"/>
-    <col min="29" max="29" width="4.4609375" customWidth="1"/>
-    <col min="30" max="30" width="3.84375" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="26" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="203"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="206"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="209"/>
-    </row>
-    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="202"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="208"/>
+    </row>
+    <row r="6" spans="2:11" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6346,24 +6293,24 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6395,7 +6342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6409,7 +6356,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6423,7 +6370,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6437,7 +6384,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6451,7 +6398,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6465,7 +6412,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6479,7 +6426,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6493,7 +6440,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6507,7 +6454,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6521,7 +6468,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6535,7 +6482,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6549,7 +6496,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6563,7 +6510,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6577,7 +6524,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6591,7 +6538,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6605,34 +6552,34 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:11" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6644,7 +6591,7 @@
     <mergeCell ref="E28:H28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26" xr:uid="{CF1C3931-A5BD-4EEB-9DC1-126C6881023F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -6656,7 +6603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6666,150 +6613,150 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.23046875" customWidth="1"/>
-    <col min="5" max="6" width="5.69140625" customWidth="1"/>
-    <col min="7" max="7" width="5.69140625" style="13" customWidth="1"/>
-    <col min="8" max="24" width="5.69140625" customWidth="1"/>
-    <col min="25" max="26" width="9.69140625" customWidth="1"/>
-    <col min="27" max="27" width="4.53515625" customWidth="1"/>
-    <col min="28" max="28" width="4.4609375" customWidth="1"/>
-    <col min="29" max="29" width="4.53515625" customWidth="1"/>
-    <col min="30" max="30" width="4.15234375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="13" customWidth="1"/>
+    <col min="8" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" customWidth="1"/>
+    <col min="30" max="30" width="4.140625" customWidth="1"/>
     <col min="31" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="4.69140625" customWidth="1"/>
-    <col min="34" max="34" width="5.23046875" customWidth="1"/>
-    <col min="35" max="35" width="4.4609375" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" customWidth="1"/>
+    <col min="35" max="35" width="4.42578125" customWidth="1"/>
     <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="37" max="37" width="4.23046875" customWidth="1"/>
-    <col min="38" max="38" width="4.69140625" customWidth="1"/>
-    <col min="39" max="39" width="4.53515625" customWidth="1"/>
-    <col min="40" max="41" width="4.15234375" customWidth="1"/>
-    <col min="42" max="42" width="4.69140625" customWidth="1"/>
-    <col min="43" max="43" width="5.53515625" customWidth="1"/>
-    <col min="44" max="44" width="4.4609375" customWidth="1"/>
-    <col min="45" max="45" width="3.84375" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" customWidth="1"/>
+    <col min="39" max="39" width="4.5703125" customWidth="1"/>
+    <col min="40" max="41" width="4.140625" customWidth="1"/>
+    <col min="42" max="42" width="4.7109375" customWidth="1"/>
+    <col min="43" max="43" width="5.5703125" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="45" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="206"/>
-    </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="209"/>
-    </row>
-    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+    </row>
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="208"/>
+    </row>
+    <row r="6" spans="2:26" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6820,7 +6767,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6832,39 +6779,39 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="179" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="179" t="s">
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="180"/>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="181"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+    </row>
+    <row r="11" spans="2:26" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6941,7 +6888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6970,7 +6917,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6999,7 +6946,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7028,7 +6975,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7057,7 +7004,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7086,7 +7033,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7115,7 +7062,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7144,7 +7091,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7173,7 +7120,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7202,7 +7149,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7231,7 +7178,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7260,7 +7207,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7289,7 +7236,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7318,7 +7265,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7347,7 +7294,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7376,36 +7323,36 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:26" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="J28" s="198" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="200"/>
-      <c r="O28" s="198" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="200"/>
-      <c r="T28" s="198" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="200"/>
-    </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
+    </row>
+    <row r="29" spans="2:26" ht="23.1" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7416,7 +7363,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="23.1" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7427,7 +7374,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:26" ht="23.1" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7445,25 +7392,25 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -7475,7 +7422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7485,200 +7432,200 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
-    <col min="3" max="3" width="34.15234375" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="6" width="5.23046875" customWidth="1"/>
-    <col min="7" max="7" width="5.23046875" style="13" customWidth="1"/>
-    <col min="8" max="34" width="5.23046875" customWidth="1"/>
-    <col min="35" max="36" width="8.84375" customWidth="1"/>
-    <col min="37" max="37" width="4.53515625" customWidth="1"/>
-    <col min="38" max="38" width="4.4609375" customWidth="1"/>
-    <col min="39" max="39" width="4.53515625" customWidth="1"/>
-    <col min="40" max="40" width="4.15234375" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="13" customWidth="1"/>
+    <col min="8" max="34" width="5.28515625" customWidth="1"/>
+    <col min="35" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="4.5703125" customWidth="1"/>
+    <col min="40" max="40" width="4.140625" customWidth="1"/>
     <col min="41" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="4.69140625" customWidth="1"/>
-    <col min="44" max="44" width="5.23046875" customWidth="1"/>
-    <col min="45" max="45" width="4.4609375" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" customWidth="1"/>
+    <col min="44" max="44" width="5.28515625" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
-    <col min="47" max="47" width="4.23046875" customWidth="1"/>
-    <col min="48" max="48" width="4.69140625" customWidth="1"/>
-    <col min="49" max="49" width="4.53515625" customWidth="1"/>
-    <col min="50" max="51" width="4.15234375" customWidth="1"/>
-    <col min="52" max="52" width="4.69140625" customWidth="1"/>
-    <col min="53" max="53" width="5.53515625" customWidth="1"/>
-    <col min="54" max="54" width="4.4609375" customWidth="1"/>
-    <col min="55" max="55" width="3.84375" customWidth="1"/>
+    <col min="47" max="47" width="4.28515625" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" customWidth="1"/>
+    <col min="49" max="49" width="4.5703125" customWidth="1"/>
+    <col min="50" max="51" width="4.140625" customWidth="1"/>
+    <col min="52" max="52" width="4.7109375" customWidth="1"/>
+    <col min="53" max="53" width="5.5703125" customWidth="1"/>
+    <col min="54" max="54" width="4.42578125" customWidth="1"/>
+    <col min="55" max="55" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="203"/>
-    </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="205"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="205"/>
-      <c r="AJ3" s="206"/>
-    </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="209"/>
-    </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="213" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="202"/>
+    </row>
+    <row r="3" spans="2:36" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="205"/>
+    </row>
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="208"/>
+    </row>
+    <row r="7" spans="2:36" ht="29.25" thickBot="1">
+      <c r="B7" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="213"/>
-      <c r="R7" s="213"/>
-      <c r="S7" s="213"/>
-      <c r="T7" s="213"/>
-      <c r="U7" s="213"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="213"/>
-      <c r="X7" s="213"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="213"/>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="213"/>
-      <c r="AC7" s="213"/>
-      <c r="AD7" s="213"/>
-      <c r="AE7" s="213"/>
-      <c r="AF7" s="213"/>
-      <c r="AG7" s="213"/>
-      <c r="AH7" s="213"/>
-      <c r="AI7" s="213"/>
-      <c r="AJ7" s="213"/>
-    </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="212"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="212"/>
+      <c r="AH7" s="212"/>
+      <c r="AI7" s="212"/>
+      <c r="AJ7" s="212"/>
+    </row>
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="215"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
+    </row>
+    <row r="9" spans="2:36" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7690,54 +7637,54 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="210" t="s">
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="212"/>
-      <c r="O10" s="210" t="s">
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="210" t="s">
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="210" t="s">
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="211"/>
-      <c r="AB10" s="211"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="210" t="s">
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="211"/>
-      <c r="AF10" s="211"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="212"/>
-    </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="211"/>
+    </row>
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7844,7 +7791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7883,7 +7830,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7922,7 +7869,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7961,7 +7908,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8000,7 +7947,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8039,7 +7986,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8078,7 +8025,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8117,7 +8064,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8156,7 +8103,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8195,7 +8142,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8234,7 +8181,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8273,7 +8220,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8312,7 +8259,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8351,7 +8298,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8390,7 +8337,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8429,48 +8376,48 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="J28" s="198" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="200"/>
-      <c r="O28" s="198" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="200"/>
-      <c r="T28" s="198" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="200"/>
-      <c r="Y28" s="198" t="s">
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
+      <c r="Y28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="200"/>
-      <c r="AD28" s="198" t="s">
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="199"/>
+      <c r="AD28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="200"/>
-    </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="199"/>
+    </row>
+    <row r="29" spans="2:36" ht="23.1" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8485,7 +8432,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" ht="23.1" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8500,7 +8447,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" ht="23.1" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8526,7 +8473,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8549,7 +8496,7 @@
     <mergeCell ref="D8:I8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -8561,7 +8508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8571,213 +8518,213 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="33.69140625" customWidth="1"/>
-    <col min="5" max="6" width="5.53515625" customWidth="1"/>
-    <col min="7" max="7" width="5.53515625" style="13" customWidth="1"/>
-    <col min="8" max="39" width="5.53515625" customWidth="1"/>
-    <col min="40" max="40" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.23046875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.53515625" customWidth="1"/>
-    <col min="43" max="43" width="4.4609375" customWidth="1"/>
-    <col min="44" max="44" width="4.53515625" customWidth="1"/>
-    <col min="45" max="45" width="4.15234375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="13" customWidth="1"/>
+    <col min="8" max="39" width="5.5703125" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.5703125" customWidth="1"/>
+    <col min="43" max="43" width="4.42578125" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" customWidth="1"/>
+    <col min="45" max="45" width="4.140625" customWidth="1"/>
     <col min="46" max="47" width="5" customWidth="1"/>
-    <col min="48" max="48" width="4.69140625" customWidth="1"/>
-    <col min="49" max="49" width="5.23046875" customWidth="1"/>
-    <col min="50" max="50" width="4.4609375" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" customWidth="1"/>
+    <col min="50" max="50" width="4.42578125" customWidth="1"/>
     <col min="51" max="51" width="5" customWidth="1"/>
-    <col min="52" max="52" width="4.23046875" customWidth="1"/>
-    <col min="53" max="53" width="4.69140625" customWidth="1"/>
-    <col min="54" max="54" width="4.53515625" customWidth="1"/>
-    <col min="55" max="56" width="4.15234375" customWidth="1"/>
-    <col min="57" max="57" width="4.69140625" customWidth="1"/>
-    <col min="58" max="58" width="5.53515625" customWidth="1"/>
-    <col min="59" max="59" width="4.4609375" customWidth="1"/>
-    <col min="60" max="60" width="3.84375" customWidth="1"/>
+    <col min="52" max="52" width="4.28515625" customWidth="1"/>
+    <col min="53" max="53" width="4.7109375" customWidth="1"/>
+    <col min="54" max="54" width="4.5703125" customWidth="1"/>
+    <col min="55" max="56" width="4.140625" customWidth="1"/>
+    <col min="57" max="57" width="4.7109375" customWidth="1"/>
+    <col min="58" max="58" width="5.5703125" customWidth="1"/>
+    <col min="59" max="59" width="4.42578125" customWidth="1"/>
+    <col min="60" max="60" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="216" t="s">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1">
+      <c r="B2" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="217"/>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
-      <c r="AF2" s="217"/>
-      <c r="AG2" s="217"/>
-      <c r="AH2" s="217"/>
-      <c r="AI2" s="217"/>
-      <c r="AJ2" s="217"/>
-      <c r="AK2" s="217"/>
-      <c r="AL2" s="217"/>
-      <c r="AM2" s="217"/>
-      <c r="AN2" s="217"/>
-      <c r="AO2" s="218"/>
-    </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="219"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="220"/>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="220"/>
-      <c r="AH3" s="220"/>
-      <c r="AI3" s="220"/>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="220"/>
-      <c r="AL3" s="220"/>
-      <c r="AM3" s="220"/>
-      <c r="AN3" s="220"/>
-      <c r="AO3" s="221"/>
-    </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="222"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-      <c r="W4" s="223"/>
-      <c r="X4" s="223"/>
-      <c r="Y4" s="223"/>
-      <c r="Z4" s="223"/>
-      <c r="AA4" s="223"/>
-      <c r="AB4" s="223"/>
-      <c r="AC4" s="223"/>
-      <c r="AD4" s="223"/>
-      <c r="AE4" s="223"/>
-      <c r="AF4" s="223"/>
-      <c r="AG4" s="223"/>
-      <c r="AH4" s="223"/>
-      <c r="AI4" s="223"/>
-      <c r="AJ4" s="223"/>
-      <c r="AK4" s="223"/>
-      <c r="AL4" s="223"/>
-      <c r="AM4" s="223"/>
-      <c r="AN4" s="223"/>
-      <c r="AO4" s="224"/>
-    </row>
-    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+    </row>
+    <row r="3" spans="2:41" ht="15" customHeight="1">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="219"/>
+      <c r="AJ3" s="219"/>
+      <c r="AK3" s="219"/>
+      <c r="AL3" s="219"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="220"/>
+    </row>
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B4" s="221"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="222"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
+      <c r="AF4" s="222"/>
+      <c r="AG4" s="222"/>
+      <c r="AH4" s="222"/>
+      <c r="AI4" s="222"/>
+      <c r="AJ4" s="222"/>
+      <c r="AK4" s="222"/>
+      <c r="AL4" s="222"/>
+      <c r="AM4" s="222"/>
+      <c r="AN4" s="222"/>
+      <c r="AO4" s="223"/>
+    </row>
+    <row r="6" spans="2:41" ht="30.75">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="213"/>
-      <c r="O6" s="213"/>
-      <c r="P6" s="213"/>
-      <c r="Q6" s="213"/>
-      <c r="R6" s="213"/>
-      <c r="S6" s="213"/>
-      <c r="T6" s="213"/>
-      <c r="U6" s="213"/>
-      <c r="V6" s="213"/>
-      <c r="W6" s="213"/>
-      <c r="X6" s="213"/>
-      <c r="Y6" s="213"/>
-      <c r="Z6" s="213"/>
-      <c r="AA6" s="213"/>
-      <c r="AB6" s="213"/>
-      <c r="AC6" s="213"/>
-      <c r="AD6" s="213"/>
-      <c r="AE6" s="213"/>
-      <c r="AF6" s="213"/>
-      <c r="AG6" s="213"/>
-      <c r="AH6" s="213"/>
-      <c r="AI6" s="213"/>
-      <c r="AJ6" s="213"/>
-      <c r="AK6" s="213"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="212"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="212"/>
+      <c r="W6" s="212"/>
+      <c r="X6" s="212"/>
+      <c r="Y6" s="212"/>
+      <c r="Z6" s="212"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="212"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="212"/>
+      <c r="AE6" s="212"/>
+      <c r="AF6" s="212"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="212"/>
+      <c r="AI6" s="212"/>
+      <c r="AJ6" s="212"/>
+      <c r="AK6" s="212"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8788,7 +8735,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8800,61 +8747,61 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="210" t="s">
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="212"/>
-      <c r="O10" s="210" t="s">
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="210" t="s">
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="210" t="s">
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="211"/>
-      <c r="AB10" s="211"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="210" t="s">
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="211"/>
-      <c r="AF10" s="211"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="212"/>
-      <c r="AI10" s="210" t="s">
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="211"/>
+      <c r="AI10" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="211"/>
-      <c r="AK10" s="211"/>
-      <c r="AL10" s="211"/>
-      <c r="AM10" s="212"/>
-    </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="210"/>
+      <c r="AL10" s="210"/>
+      <c r="AM10" s="211"/>
+    </row>
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -8976,7 +8923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9020,7 +8967,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9064,7 +9011,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9108,7 +9055,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9152,7 +9099,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9196,7 +9143,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9240,7 +9187,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9284,7 +9231,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9328,7 +9275,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9372,7 +9319,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9416,7 +9363,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9460,7 +9407,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9504,7 +9451,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9548,7 +9495,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9592,7 +9539,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9636,54 +9583,54 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="15.75" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="198" t="s">
+    <row r="28" spans="2:41" ht="19.5" thickBot="1">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="J28" s="198" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="200"/>
-      <c r="O28" s="198" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="200"/>
-      <c r="T28" s="198" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="200"/>
-      <c r="Y28" s="198" t="s">
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
+      <c r="Y28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="200"/>
-      <c r="AD28" s="198" t="s">
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="199"/>
+      <c r="AD28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="200"/>
-      <c r="AI28" s="198" t="s">
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="199"/>
+      <c r="AI28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="199"/>
-      <c r="AK28" s="199"/>
-      <c r="AL28" s="200"/>
-    </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ28" s="198"/>
+      <c r="AK28" s="198"/>
+      <c r="AL28" s="199"/>
+    </row>
+    <row r="29" spans="2:41" ht="23.1" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9700,7 +9647,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:41" ht="23.1" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9717,7 +9664,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="23.1" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9747,19 +9694,12 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:41">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9769,9 +9709,16 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -9783,198 +9730,205 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B42591-B480-4294-98B1-CEFCE49C5F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="32.53515625" customWidth="1"/>
-    <col min="4" max="4" width="32.15234375" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.61328125" customWidth="1"/>
-    <col min="29" max="29" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.53515625" customWidth="1"/>
-    <col min="33" max="33" width="4.4609375" customWidth="1"/>
-    <col min="34" max="34" width="4.53515625" customWidth="1"/>
-    <col min="35" max="35" width="4.15234375" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" customWidth="1"/>
     <col min="36" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="4.69140625" customWidth="1"/>
-    <col min="39" max="39" width="5.23046875" customWidth="1"/>
-    <col min="40" max="40" width="4.4609375" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.42578125" customWidth="1"/>
     <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="4.23046875" customWidth="1"/>
-    <col min="43" max="43" width="4.69140625" customWidth="1"/>
-    <col min="44" max="44" width="4.53515625" customWidth="1"/>
-    <col min="45" max="46" width="4.15234375" customWidth="1"/>
-    <col min="47" max="47" width="4.69140625" customWidth="1"/>
-    <col min="48" max="48" width="5.53515625" customWidth="1"/>
-    <col min="49" max="49" width="4.4609375" customWidth="1"/>
-    <col min="50" max="50" width="3.84375" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" customWidth="1"/>
+    <col min="45" max="46" width="4.140625" customWidth="1"/>
+    <col min="47" max="47" width="4.7109375" customWidth="1"/>
+    <col min="48" max="48" width="5.5703125" customWidth="1"/>
+    <col min="49" max="49" width="4.42578125" customWidth="1"/>
+    <col min="50" max="50" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="203"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="206"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="209"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="202"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="205"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
+    </row>
+    <row r="6" spans="2:31" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+    </row>
+    <row r="7" spans="2:31" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -9982,7 +9936,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -9994,46 +9948,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="179" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="180"/>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="179" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="180"/>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="180"/>
-      <c r="AC10" s="181"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+    </row>
+    <row r="11" spans="2:31" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10082,102 +10022,76 @@
       <c r="Q11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="53"/>
-      <c r="T11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD11" s="54" t="s">
+      <c r="R11" s="53"/>
+      <c r="S11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AE11" s="54" t="s">
+      <c r="T11" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="118" t="e">
+        <v>61</v>
+      </c>
+      <c r="E12" s="106">
+        <v>10</v>
+      </c>
+      <c r="F12" s="107">
+        <v>9</v>
+      </c>
+      <c r="G12" s="107">
+        <v>10</v>
+      </c>
+      <c r="H12" s="108">
+        <v>10</v>
+      </c>
+      <c r="I12" s="118">
         <f t="shared" ref="I12:I16" si="0">(AVERAGE(E12:G12)+H12)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="118" t="e">
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="J12" s="109">
+        <v>9</v>
+      </c>
+      <c r="K12" s="116">
+        <v>10</v>
+      </c>
+      <c r="L12" s="110">
+        <v>10</v>
+      </c>
+      <c r="M12" s="111">
+        <v>10</v>
+      </c>
+      <c r="N12" s="118">
         <f>(AVERAGE(J12:L12)+M12)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="106"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="118" t="e">
-        <f>(AVERAGE(O12:Q12)+R12)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="118" t="e">
-        <f>(AVERAGE(T12:V12)+W12)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="118" t="e">
-        <f>(AVERAGE(Y12:AA12))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="119" t="e">
-        <f>AVERAGE(I12,N12,S12,X12,AC12,AD12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="O12" s="106">
+        <v>7</v>
+      </c>
+      <c r="P12" s="107">
+        <v>8.6</v>
+      </c>
+      <c r="Q12" s="107">
+        <v>10</v>
+      </c>
+      <c r="R12" s="118">
+        <f>(AVERAGE(O12:Q12))</f>
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="S12" s="106"/>
+      <c r="T12" s="119">
+        <f>AVERAGE(I12,N12,R12,S12)</f>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10202,190 +10116,122 @@
       <c r="O13" s="112"/>
       <c r="P13" s="113"/>
       <c r="Q13" s="113"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="118" t="e">
-        <f t="shared" ref="S13" si="2">(AVERAGE(O13:Q13)+R13)/2</f>
+      <c r="R13" s="118" t="e">
+        <f>(AVERAGE(O13:Q13)+#REF!)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="112"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="118" t="e">
-        <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="118" t="e">
-        <f t="shared" ref="AC13:AC14" si="4">(AVERAGE(Y13:AA13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="119" t="e">
-        <f t="shared" ref="AE13:AE14" si="5">AVERAGE(I13,N13,S13,X13,AC13,AD13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S13" s="112"/>
+      <c r="T13" s="119" t="e">
+        <f>AVERAGE(I13,N13,R13,#REF!,#REF!,S13)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="146"/>
       <c r="N14" s="118" t="e">
-        <f t="shared" ref="N14:N16" si="6">(AVERAGE(J14:L14)+M14)/2</f>
+        <f t="shared" ref="N14:N16" si="2">(AVERAGE(J14:L14)+M14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="142"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="118" t="e">
-        <f t="shared" ref="S14:S16" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
+      <c r="O14" s="141"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="118" t="e">
+        <f>(AVERAGE(O14:Q14)+#REF!)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="142"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="118" t="e">
-        <f>(AVERAGE(T14:V14)+W14)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="118" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="148" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="178">
+      <c r="S14" s="141"/>
+      <c r="T14" s="147" t="e">
+        <f>AVERAGE(I14,N14,R14,#REF!,#REF!,S14)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="177">
         <v>4</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="146"/>
       <c r="N15" s="118" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="118" t="e">
-        <f t="shared" si="7"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="118" t="e">
+        <f>(AVERAGE(O15:Q15)+#REF!)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="142"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="118" t="e">
-        <f>(AVERAGE(T15:V15)+W15)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="118" t="e">
-        <f>(AVERAGE(Y15:AA15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="148" t="e">
-        <f>AVERAGE(I15,N15,S15,X15,AC15,AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="S15" s="141"/>
+      <c r="T15" s="147" t="e">
+        <f>AVERAGE(I15,N15,R15,#REF!,#REF!,S15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>7</v>
       </c>
       <c r="C16" s="104"/>
       <c r="D16" s="105"/>
       <c r="E16" s="121"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
       <c r="I16" s="123" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="160"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="159"/>
       <c r="N16" s="123" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="121"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="123" t="e">
-        <f t="shared" si="7"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="123" t="e">
+        <f>(AVERAGE(O16:Q16)+#REF!)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="121"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="123" t="e">
-        <f>(AVERAGE(T16:V16)+W16)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="123" t="e">
-        <f>(AVERAGE(Y16:AA16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="122" t="e">
-        <f>AVERAGE(I16,N16,S16,X16,AC16,AD16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S16" s="121"/>
+      <c r="T16" s="122" t="e">
+        <f>AVERAGE(I16,N16,R16,#REF!,#REF!,S16)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>9</v>
       </c>
@@ -10404,22 +10250,11 @@
       <c r="O17" s="27"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="24"/>
-    </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R17" s="36"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>10</v>
       </c>
@@ -10438,22 +10273,11 @@
       <c r="O18" s="27"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="24"/>
-    </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R18" s="36"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -10472,22 +10296,11 @@
       <c r="O19" s="27"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="24"/>
-    </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="36"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -10506,22 +10319,11 @@
       <c r="O20" s="27"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="24"/>
-    </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R20" s="36"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>13</v>
       </c>
@@ -10540,22 +10342,11 @@
       <c r="O21" s="27"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="24"/>
-    </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R21" s="36"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="24"/>
+    </row>
+    <row r="22" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>14</v>
       </c>
@@ -10574,22 +10365,11 @@
       <c r="O22" s="27"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="24"/>
-    </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R22" s="36"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="24"/>
+    </row>
+    <row r="23" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="82">
         <v>15</v>
       </c>
@@ -10608,22 +10388,11 @@
       <c r="O23" s="85"/>
       <c r="P23" s="86"/>
       <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="93"/>
-    </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R23" s="88"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="93"/>
+    </row>
+    <row r="24" spans="2:28" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="63">
         <v>16</v>
       </c>
@@ -10642,57 +10411,46 @@
       <c r="O24" s="28"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="57"/>
-    </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R24" s="55"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="57"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" thickBot="1">
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="198" t="s">
+    <row r="26" spans="2:28" ht="19.5" thickBot="1">
+      <c r="E26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="200"/>
-      <c r="J26" s="198" t="s">
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="199"/>
+      <c r="J26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="200"/>
-      <c r="O26" s="198" t="s">
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="199"/>
+      <c r="O26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="200"/>
-      <c r="T26" s="198" t="s">
+      <c r="P26" s="198"/>
+      <c r="Q26" s="198"/>
+      <c r="R26" s="199"/>
+      <c r="T26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="200"/>
-      <c r="Y26" s="198" t="s">
+      <c r="U26" s="198"/>
+      <c r="V26" s="198"/>
+      <c r="W26" s="199"/>
+      <c r="Y26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="199"/>
-      <c r="AB26" s="200"/>
-    </row>
-    <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="198"/>
+      <c r="AB26" s="199"/>
+    </row>
+    <row r="27" spans="2:28" ht="23.1" customHeight="1">
       <c r="E27" s="41"/>
       <c r="G27"/>
       <c r="H27" s="42"/>
@@ -10705,7 +10463,7 @@
       <c r="Y27" s="41"/>
       <c r="AB27" s="42"/>
     </row>
-    <row r="28" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28" ht="23.1" customHeight="1">
       <c r="E28" s="41"/>
       <c r="G28"/>
       <c r="H28" s="42"/>
@@ -10718,7 +10476,7 @@
       <c r="Y28" s="41"/>
       <c r="AB28" s="42"/>
     </row>
-    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:28" ht="23.1" customHeight="1" thickBot="1">
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -10740,41 +10498,39 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28">
       <c r="G30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:AE15">
+  <sortState ref="C12:AE15">
     <sortCondition ref="C12:C15"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="E12:AE15">
+  <conditionalFormatting sqref="E12:T15">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AE15">
+  <conditionalFormatting sqref="T12:T15">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:V13 T12:W12 Y12:AB24 O12:R24 T14:W24 E12:H24" xr:uid="{B62CFA69-AA7E-41F2-B307-45E5E1E9831E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:Q24 E12:H24">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -10786,7 +10542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10796,201 +10552,201 @@
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="32.53515625" customWidth="1"/>
-    <col min="4" max="4" width="32.15234375" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.07421875" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.69140625" customWidth="1"/>
-    <col min="30" max="30" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.84375" customWidth="1"/>
-    <col min="32" max="32" width="7.23046875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.53515625" customWidth="1"/>
-    <col min="34" max="34" width="4.4609375" customWidth="1"/>
-    <col min="35" max="35" width="4.53515625" customWidth="1"/>
-    <col min="36" max="36" width="4.15234375" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5703125" customWidth="1"/>
+    <col min="34" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
     <col min="37" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="4.69140625" customWidth="1"/>
-    <col min="40" max="40" width="5.23046875" customWidth="1"/>
-    <col min="41" max="41" width="4.4609375" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" customWidth="1"/>
+    <col min="41" max="41" width="4.42578125" customWidth="1"/>
     <col min="42" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="4.23046875" customWidth="1"/>
-    <col min="44" max="44" width="4.69140625" customWidth="1"/>
-    <col min="45" max="45" width="4.53515625" customWidth="1"/>
-    <col min="46" max="47" width="4.15234375" customWidth="1"/>
-    <col min="48" max="48" width="4.69140625" customWidth="1"/>
-    <col min="49" max="49" width="5.53515625" customWidth="1"/>
-    <col min="50" max="50" width="4.4609375" customWidth="1"/>
-    <col min="51" max="51" width="3.84375" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" customWidth="1"/>
+    <col min="46" max="47" width="4.140625" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" customWidth="1"/>
+    <col min="49" max="49" width="5.5703125" customWidth="1"/>
+    <col min="50" max="50" width="4.42578125" customWidth="1"/>
+    <col min="51" max="51" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="225" t="s">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1">
+      <c r="B2" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="203"/>
-    </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="206"/>
-    </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="209"/>
-    </row>
-    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="205"/>
+    </row>
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="208"/>
+    </row>
+    <row r="6" spans="2:32" ht="26.25">
+      <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="196"/>
+    </row>
+    <row r="7" spans="2:32" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -10999,7 +10755,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="15.75" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11015,47 +10771,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="15.75" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="179" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="179" t="s">
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="179" t="s">
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="179" t="s">
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="180"/>
+      <c r="Z10" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="180"/>
-      <c r="AC10" s="180"/>
-      <c r="AD10" s="181"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="180"/>
+    </row>
+    <row r="11" spans="2:32" ht="15.75" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11148,45 +10904,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="126" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="126" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="120">
         <v>10</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="133">
         <v>8.07</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>5</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="133">
         <v>8.9</v>
       </c>
-      <c r="I12" s="136">
+      <c r="I12" s="135">
         <v>8</v>
       </c>
       <c r="J12" s="123">
         <f t="shared" ref="J12:J17" si="0">(AVERAGE(E12:H12)+I12)/2</f>
         <v>7.9962499999999999</v>
       </c>
-      <c r="K12" s="137">
+      <c r="K12" s="136">
         <v>10</v>
       </c>
-      <c r="L12" s="138">
+      <c r="L12" s="137">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M12" s="138">
+      <c r="M12" s="137">
         <v>6</v>
       </c>
-      <c r="N12" s="139">
+      <c r="N12" s="138">
         <v>6</v>
       </c>
       <c r="O12" s="123">
@@ -11196,13 +10952,13 @@
       <c r="P12" s="120">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q12" s="134">
+      <c r="Q12" s="133">
         <v>10</v>
       </c>
-      <c r="R12" s="134">
+      <c r="R12" s="133">
         <v>10</v>
       </c>
-      <c r="S12" s="136">
+      <c r="S12" s="135">
         <v>7</v>
       </c>
       <c r="T12" s="123">
@@ -11212,13 +10968,13 @@
       <c r="U12" s="120">
         <v>8</v>
       </c>
-      <c r="V12" s="134">
+      <c r="V12" s="133">
         <v>10</v>
       </c>
-      <c r="W12" s="134">
+      <c r="W12" s="133">
         <v>9</v>
       </c>
-      <c r="X12" s="136">
+      <c r="X12" s="135">
         <v>6.25</v>
       </c>
       <c r="Y12" s="123">
@@ -11226,9 +10982,9 @@
         <v>7.625</v>
       </c>
       <c r="Z12" s="120"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="136"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="135"/>
       <c r="AD12" s="123" t="e">
         <f>(AVERAGE(Z12:AB12))</f>
         <v>#DIV/0!</v>
@@ -11239,233 +10995,233 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="168">
+      <c r="E13" s="167">
         <v>10</v>
       </c>
-      <c r="F13" s="169">
+      <c r="F13" s="168">
         <v>7.85</v>
       </c>
-      <c r="G13" s="169">
+      <c r="G13" s="168">
         <v>7</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="168">
         <v>7.2</v>
       </c>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171">
+      <c r="I13" s="169"/>
+      <c r="J13" s="170">
         <f t="shared" si="0"/>
         <v>4.0062500000000005</v>
       </c>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="171" t="e">
+      <c r="K13" s="171"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="171" t="e">
+      <c r="P13" s="174"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="170" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="175"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="171" t="e">
+      <c r="U13" s="174"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="170" t="e">
         <f>(AVERAGE(U13:W13)+X13)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="171" t="e">
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="170" t="e">
         <f>(AVERAGE(Z13:AB13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="177" t="e">
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="176" t="e">
         <f>(AVERAGE(J13,O13,T13,Y13,AD13)+AE13)/2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="167" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="175">
+      <c r="E14" s="174">
         <v>10</v>
       </c>
-      <c r="F14" s="169">
+      <c r="F14" s="168">
         <v>7.69</v>
       </c>
-      <c r="G14" s="169">
+      <c r="G14" s="168">
         <v>8.9</v>
       </c>
-      <c r="H14" s="169">
+      <c r="H14" s="168">
         <v>8.9</v>
       </c>
-      <c r="I14" s="170">
+      <c r="I14" s="169">
         <v>9</v>
       </c>
-      <c r="J14" s="171">
+      <c r="J14" s="170">
         <f>(AVERAGE(E14:H14)+I14)/2</f>
         <v>8.9362500000000011</v>
       </c>
-      <c r="K14" s="172">
+      <c r="K14" s="171">
         <v>10</v>
       </c>
-      <c r="L14" s="173">
+      <c r="L14" s="172">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M14" s="173">
+      <c r="M14" s="172">
         <v>8</v>
       </c>
-      <c r="N14" s="174">
+      <c r="N14" s="173">
         <v>7</v>
       </c>
-      <c r="O14" s="171">
+      <c r="O14" s="170">
         <f t="shared" si="1"/>
         <v>7.8833333333333337</v>
       </c>
-      <c r="P14" s="175">
+      <c r="P14" s="174">
         <v>5</v>
       </c>
-      <c r="Q14" s="169">
+      <c r="Q14" s="168">
         <v>10</v>
       </c>
-      <c r="R14" s="169">
+      <c r="R14" s="168">
         <v>10</v>
       </c>
-      <c r="S14" s="170">
+      <c r="S14" s="169">
         <v>6</v>
       </c>
-      <c r="T14" s="171">
+      <c r="T14" s="170">
         <f t="shared" si="2"/>
         <v>7.166666666666667</v>
       </c>
-      <c r="U14" s="175"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="171" t="e">
+      <c r="U14" s="174"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="170" t="e">
         <f>(AVERAGE(U14:W14)+X14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="176"/>
-      <c r="AB14" s="169"/>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="171" t="e">
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="169"/>
+      <c r="AD14" s="170" t="e">
         <f t="shared" ref="AD14:AD16" si="3">(AVERAGE(Z14:AB14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="177" t="e">
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="176" t="e">
         <f t="shared" ref="AF14:AF17" si="4">(AVERAGE(J14,O14,T14,Y14,AD14)+AE14)/2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="157">
+      <c r="E15" s="156">
         <v>10</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="150">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="150">
         <v>10</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="150">
         <v>10</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="151">
         <v>9.5</v>
       </c>
-      <c r="J15" s="153">
+      <c r="J15" s="152">
         <f t="shared" si="0"/>
         <v>9.5562500000000004</v>
       </c>
-      <c r="K15" s="154">
+      <c r="K15" s="153">
         <v>9</v>
       </c>
-      <c r="L15" s="155">
+      <c r="L15" s="154">
         <v>10</v>
       </c>
-      <c r="M15" s="155">
+      <c r="M15" s="154">
         <v>10</v>
       </c>
-      <c r="N15" s="156">
+      <c r="N15" s="155">
         <v>10</v>
       </c>
-      <c r="O15" s="153">
+      <c r="O15" s="152">
         <f t="shared" si="1"/>
         <v>9.8333333333333321</v>
       </c>
-      <c r="P15" s="157">
+      <c r="P15" s="156">
         <v>10</v>
       </c>
-      <c r="Q15" s="151">
+      <c r="Q15" s="150">
         <v>9</v>
       </c>
-      <c r="R15" s="151">
+      <c r="R15" s="150">
         <v>10</v>
       </c>
-      <c r="S15" s="152">
+      <c r="S15" s="151">
         <v>10</v>
       </c>
-      <c r="T15" s="153">
+      <c r="T15" s="152">
         <f t="shared" si="2"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="U15" s="121">
         <v>10</v>
       </c>
-      <c r="V15" s="132">
+      <c r="V15" s="131">
         <v>10</v>
       </c>
-      <c r="W15" s="132">
+      <c r="W15" s="131">
         <v>10</v>
       </c>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="135">
+      <c r="X15" s="132"/>
+      <c r="Y15" s="134">
         <f t="shared" ref="Y15:Y16" si="5">(AVERAGE(U15:W15)+X15)/2</f>
         <v>5</v>
       </c>
       <c r="Z15" s="121"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="133"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="132"/>
       <c r="AD15" s="123" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -11476,77 +11232,77 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="157">
+      <c r="E16" s="156">
         <v>10</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="150">
         <v>7.46</v>
       </c>
-      <c r="G16" s="151">
+      <c r="G16" s="150">
         <v>10</v>
       </c>
-      <c r="H16" s="151">
+      <c r="H16" s="150">
         <v>8.9</v>
       </c>
-      <c r="I16" s="152">
+      <c r="I16" s="151">
         <v>7.25</v>
       </c>
-      <c r="J16" s="153">
+      <c r="J16" s="152">
         <f t="shared" si="0"/>
         <v>8.17</v>
       </c>
-      <c r="K16" s="154">
+      <c r="K16" s="153">
         <v>10</v>
       </c>
-      <c r="L16" s="155">
+      <c r="L16" s="154">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M16" s="155">
+      <c r="M16" s="154">
         <v>10</v>
       </c>
-      <c r="N16" s="156">
+      <c r="N16" s="155">
         <v>10</v>
       </c>
-      <c r="O16" s="153">
+      <c r="O16" s="152">
         <f t="shared" si="1"/>
         <v>9.8666666666666671</v>
       </c>
-      <c r="P16" s="157">
+      <c r="P16" s="156">
         <v>10</v>
       </c>
-      <c r="Q16" s="151">
+      <c r="Q16" s="150">
         <v>10</v>
       </c>
-      <c r="R16" s="151">
+      <c r="R16" s="150">
         <v>10</v>
       </c>
-      <c r="S16" s="152">
+      <c r="S16" s="151">
         <v>8</v>
       </c>
-      <c r="T16" s="153">
+      <c r="T16" s="152">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="U16" s="121">
         <v>7.1</v>
       </c>
-      <c r="V16" s="132">
+      <c r="V16" s="131">
         <v>10</v>
       </c>
-      <c r="W16" s="132">
+      <c r="W16" s="131">
         <v>10</v>
       </c>
-      <c r="X16" s="133">
+      <c r="X16" s="132">
         <v>8.1199999999999992</v>
       </c>
       <c r="Y16" s="123">
@@ -11554,9 +11310,9 @@
         <v>8.5766666666666662</v>
       </c>
       <c r="Z16" s="121"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="133"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="132"/>
       <c r="AD16" s="123" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -11567,95 +11323,95 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="121">
         <v>10</v>
       </c>
-      <c r="F17" s="132">
+      <c r="F17" s="131">
         <v>7.69</v>
       </c>
-      <c r="G17" s="132">
+      <c r="G17" s="131">
         <v>10</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="131">
         <v>8.9</v>
       </c>
-      <c r="I17" s="133">
+      <c r="I17" s="132">
         <v>8</v>
       </c>
       <c r="J17" s="123">
         <f t="shared" si="0"/>
         <v>8.5737500000000004</v>
       </c>
-      <c r="K17" s="158">
+      <c r="K17" s="157">
         <v>10</v>
       </c>
-      <c r="L17" s="159">
+      <c r="L17" s="158">
         <v>8</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="158">
         <v>6.5</v>
       </c>
-      <c r="N17" s="160">
+      <c r="N17" s="159">
         <v>8</v>
       </c>
-      <c r="O17" s="135">
+      <c r="O17" s="134">
         <f t="shared" si="1"/>
         <v>8.0833333333333321</v>
       </c>
       <c r="P17" s="121">
         <v>10</v>
       </c>
-      <c r="Q17" s="132">
+      <c r="Q17" s="131">
         <v>6.5</v>
       </c>
-      <c r="R17" s="132">
+      <c r="R17" s="131">
         <v>8</v>
       </c>
-      <c r="S17" s="133">
+      <c r="S17" s="132">
         <v>8</v>
       </c>
-      <c r="T17" s="135">
+      <c r="T17" s="134">
         <f t="shared" si="2"/>
         <v>8.0833333333333321</v>
       </c>
       <c r="U17" s="121">
         <v>7.1</v>
       </c>
-      <c r="V17" s="132">
+      <c r="V17" s="131">
         <v>10</v>
       </c>
-      <c r="W17" s="132">
+      <c r="W17" s="131">
         <v>10</v>
       </c>
-      <c r="X17" s="133">
+      <c r="X17" s="132">
         <v>10</v>
       </c>
-      <c r="Y17" s="135">
+      <c r="Y17" s="134">
         <f>(AVERAGE(U17:W17)+X17)/2</f>
         <v>9.5166666666666657</v>
       </c>
       <c r="Z17" s="121"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="133"/>
-      <c r="AD17" s="135"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="134"/>
       <c r="AE17" s="121"/>
       <c r="AF17" s="122">
         <f t="shared" si="4"/>
         <v>4.2821354166666659</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11690,7 +11446,7 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11725,7 +11481,7 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11760,7 +11516,7 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="24"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11795,7 +11551,7 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="24"/>
     </row>
-    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11830,7 +11586,7 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="24"/>
     </row>
-    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -11865,7 +11621,7 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="24"/>
     </row>
-    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -11900,7 +11656,7 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="24"/>
     </row>
-    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -11935,7 +11691,7 @@
       <c r="AE25" s="27"/>
       <c r="AF25" s="24"/>
     </row>
-    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -11970,7 +11726,7 @@
       <c r="AE26" s="85"/>
       <c r="AF26" s="93"/>
     </row>
-    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12005,43 +11761,43 @@
       <c r="AE27" s="28"/>
       <c r="AF27" s="57"/>
     </row>
-    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:32" ht="15.75" thickBot="1">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="198" t="s">
+    <row r="29" spans="2:32" ht="19.5" thickBot="1">
+      <c r="E29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="200"/>
-      <c r="K29" s="198" t="s">
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
+      <c r="K29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="199"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="200"/>
-      <c r="P29" s="198" t="s">
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="199"/>
+      <c r="P29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="200"/>
-      <c r="U29" s="198" t="s">
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="199"/>
+      <c r="U29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="199"/>
-      <c r="W29" s="199"/>
-      <c r="X29" s="200"/>
-      <c r="Z29" s="198" t="s">
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="199"/>
+      <c r="Z29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="199"/>
-      <c r="AB29" s="199"/>
-      <c r="AC29" s="200"/>
-    </row>
-    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="199"/>
+    </row>
+    <row r="30" spans="2:32" ht="23.1" customHeight="1">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -12054,7 +11810,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:32" ht="23.1" customHeight="1">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -12067,7 +11823,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:32" ht="23.1" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12090,11 +11846,11 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8">
       <c r="H33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:E17">
+  <sortState ref="C13:E17">
     <sortCondition ref="C12:C17"/>
   </sortState>
   <dataConsolidate/>
@@ -12126,7 +11882,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 Z12:AC27 U12:X27" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 Z12:AC27 U12:X27">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/calificaciones3.xlsx
+++ b/calificaciones3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARGOTH BARRERA\Desktop\OHM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528227198c0a97e9/Desktop/OHM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EA9EFFE6FD9327809399AF39B590A90FEF4DB81B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D8109E-B985-445A-BC48-2B71A60806FF}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16665" windowHeight="9465" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="SABADOS MAÑANA" sheetId="5" r:id="rId9"/>
     <sheet name="LUNES-VIERNES" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="64">
   <si>
     <r>
       <rPr>
@@ -303,12 +304,15 @@
   <si>
     <t>QUINTUÑA VALLE</t>
   </si>
+  <si>
+    <t>9,3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2880,6 +2884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2915,6 +2936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3090,7 +3128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3100,42 +3138,42 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" customWidth="1"/>
-    <col min="34" max="34" width="4.5703125" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.54296875" customWidth="1"/>
+    <col min="33" max="33" width="4.453125" customWidth="1"/>
+    <col min="34" max="34" width="4.54296875" customWidth="1"/>
+    <col min="35" max="35" width="4.1796875" customWidth="1"/>
     <col min="36" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" customWidth="1"/>
-    <col min="40" max="40" width="4.42578125" customWidth="1"/>
+    <col min="38" max="38" width="4.7265625" customWidth="1"/>
+    <col min="39" max="39" width="5.26953125" customWidth="1"/>
+    <col min="40" max="40" width="4.453125" customWidth="1"/>
     <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="4.28515625" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" customWidth="1"/>
-    <col min="45" max="46" width="4.140625" customWidth="1"/>
-    <col min="47" max="47" width="4.7109375" customWidth="1"/>
-    <col min="48" max="48" width="5.5703125" customWidth="1"/>
-    <col min="49" max="49" width="4.42578125" customWidth="1"/>
-    <col min="50" max="50" width="3.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.26953125" customWidth="1"/>
+    <col min="43" max="43" width="4.7265625" customWidth="1"/>
+    <col min="44" max="44" width="4.54296875" customWidth="1"/>
+    <col min="45" max="46" width="4.1796875" customWidth="1"/>
+    <col min="47" max="47" width="4.7265625" customWidth="1"/>
+    <col min="48" max="48" width="5.54296875" customWidth="1"/>
+    <col min="49" max="49" width="4.453125" customWidth="1"/>
+    <col min="50" max="50" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="181" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3207,7 @@
       <c r="AD1" s="182"/>
       <c r="AE1" s="182"/>
     </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="182"/>
       <c r="C2" s="182"/>
       <c r="D2" s="182"/>
@@ -3201,7 +3239,7 @@
       <c r="AD2" s="182"/>
       <c r="AE2" s="182"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="182"/>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
@@ -3233,7 +3271,7 @@
       <c r="AD3" s="182"/>
       <c r="AE3" s="182"/>
     </row>
-    <row r="5" spans="2:31">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D5" s="183" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3292,7 @@
       <c r="Q5" s="186"/>
       <c r="R5" s="186"/>
     </row>
-    <row r="6" spans="2:31">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3266,7 +3304,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D7" s="183" t="s">
         <v>3</v>
       </c>
@@ -3287,7 +3325,7 @@
       <c r="Q7" s="185"/>
       <c r="R7" s="185"/>
     </row>
-    <row r="8" spans="2:31" ht="15.75" thickBot="1">
+    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3299,7 +3337,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15.75" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="178" t="s">
@@ -3338,7 +3376,7 @@
       <c r="AB9" s="179"/>
       <c r="AC9" s="180"/>
     </row>
-    <row r="10" spans="2:31" ht="15.75" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3428,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15.75" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3480,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15.75" thickBot="1">
+    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3532,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15.75" thickBot="1">
+    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3584,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15.75" thickBot="1">
+    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3636,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15.75" thickBot="1">
+    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3688,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15.75" thickBot="1">
+    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3740,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15.75" thickBot="1">
+    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3792,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15.75" thickBot="1">
+    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3844,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15.75" thickBot="1">
+    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -3896,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15.75" thickBot="1">
+    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -3948,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15.75" thickBot="1">
+    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4000,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15.75" thickBot="1">
+    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4052,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15.75" thickBot="1">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4104,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15.75" thickBot="1">
+    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4156,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15.75" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4208,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15.75" thickBot="1">
+    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4260,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15.75" thickBot="1">
+    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4312,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15.75" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4364,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15.75" thickBot="1">
+    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4416,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15.75" thickBot="1">
+    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4468,22 +4506,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.35">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4505,7 +4543,7 @@
     <mergeCell ref="T9:X9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:R30 E11:H30">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:R30 E11:H30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -4517,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4527,46 +4565,46 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" customWidth="1"/>
-    <col min="25" max="25" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" customWidth="1"/>
+    <col min="19" max="19" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" customWidth="1"/>
+    <col min="21" max="21" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.54296875" customWidth="1"/>
+    <col min="23" max="23" width="4.453125" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="25" width="4.1796875" customWidth="1"/>
     <col min="26" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" customWidth="1"/>
-    <col min="29" max="29" width="5.28515625" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
+    <col min="28" max="28" width="4.7265625" customWidth="1"/>
+    <col min="29" max="29" width="5.26953125" customWidth="1"/>
+    <col min="30" max="30" width="4.453125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" customWidth="1"/>
-    <col min="33" max="33" width="4.7109375" customWidth="1"/>
-    <col min="34" max="34" width="4.5703125" customWidth="1"/>
-    <col min="35" max="36" width="4.140625" customWidth="1"/>
-    <col min="37" max="37" width="4.7109375" customWidth="1"/>
-    <col min="38" max="38" width="5.5703125" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" customWidth="1"/>
-    <col min="40" max="40" width="3.85546875" customWidth="1"/>
+    <col min="32" max="32" width="4.26953125" customWidth="1"/>
+    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="34" max="34" width="4.54296875" customWidth="1"/>
+    <col min="35" max="36" width="4.1796875" customWidth="1"/>
+    <col min="37" max="37" width="4.7265625" customWidth="1"/>
+    <col min="38" max="38" width="5.54296875" customWidth="1"/>
+    <col min="39" max="39" width="4.453125" customWidth="1"/>
+    <col min="40" max="40" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -4590,7 +4628,7 @@
       <c r="T2" s="201"/>
       <c r="U2" s="202"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1">
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -4612,7 +4650,7 @@
       <c r="T3" s="204"/>
       <c r="U3" s="205"/>
     </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -4634,7 +4672,7 @@
       <c r="T4" s="207"/>
       <c r="U4" s="208"/>
     </row>
-    <row r="6" spans="2:21" ht="26.25">
+    <row r="6" spans="2:21" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>40</v>
       </c>
@@ -4658,8 +4696,8 @@
       <c r="T6" s="196"/>
       <c r="U6" s="196"/>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4710,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4684,7 +4722,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -4709,7 +4747,7 @@
       <c r="R10" s="179"/>
       <c r="S10" s="180"/>
     </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1">
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4769,7 +4807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4823,7 +4861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4877,7 +4915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -4931,7 +4969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -4983,7 +5021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5007,7 +5045,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5031,7 +5069,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5055,7 +5093,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5079,7 +5117,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5103,7 +5141,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5127,7 +5165,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5151,7 +5189,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5175,7 +5213,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5199,7 +5237,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5223,7 +5261,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5247,10 +5285,10 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15.75" thickBot="1">
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="19.5" thickBot="1">
+    <row r="28" spans="2:21" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -5270,7 +5308,7 @@
       <c r="Q28" s="198"/>
       <c r="R28" s="199"/>
     </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1">
+    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5279,7 +5317,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1">
+    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5288,7 +5326,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5302,11 +5340,11 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
-  <sortState ref="C12:Q15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:Q15">
     <sortCondition ref="C12:C15"/>
   </sortState>
   <dataConsolidate/>
@@ -5331,7 +5369,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -5343,17 +5381,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="187" t="s">
         <v>31</v>
       </c>
@@ -5367,7 +5405,7 @@
       <c r="I2" s="188"/>
       <c r="J2" s="189"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="190"/>
       <c r="B3" s="191"/>
       <c r="C3" s="191"/>
@@ -5379,7 +5417,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="192"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="193"/>
       <c r="B4" s="194"/>
       <c r="C4" s="194"/>
@@ -5391,11 +5429,11 @@
       <c r="I4" s="194"/>
       <c r="J4" s="195"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="26.25">
+    <row r="6" spans="1:10" ht="25" x14ac:dyDescent="0.5">
       <c r="A6" s="196" t="s">
         <v>36</v>
       </c>
@@ -5409,11 +5447,11 @@
       <c r="I6" s="196"/>
       <c r="J6" s="196"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21.75" thickBot="1">
+    <row r="8" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5425,14 +5463,14 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5444,7 +5482,7 @@
       <c r="G10" s="179"/>
       <c r="H10" s="180"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5476,7 +5514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5490,7 +5528,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+    <row r="13" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5504,7 +5542,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" thickBot="1">
+    <row r="14" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5518,7 +5556,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" thickBot="1">
+    <row r="15" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5532,7 +5570,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" thickBot="1">
+    <row r="16" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5546,7 +5584,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" thickBot="1">
+    <row r="17" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5560,7 +5598,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1">
+    <row r="18" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5574,7 +5612,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75">
+    <row r="19" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5588,10 +5626,10 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" thickBot="1">
+    <row r="21" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="49"/>
       <c r="D21" s="197" t="s">
         <v>23</v>
@@ -5600,24 +5638,24 @@
       <c r="F21" s="198"/>
       <c r="G21" s="199"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5628,7 +5666,7 @@
     <mergeCell ref="D21:G21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:G19">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:G19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -5640,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5650,37 +5688,37 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="13" customWidth="1"/>
-    <col min="8" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="6" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="13" customWidth="1"/>
+    <col min="8" max="14" width="6.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.7265625" customWidth="1"/>
+    <col min="17" max="17" width="4.54296875" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" customWidth="1"/>
+    <col min="19" max="19" width="4.54296875" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" customWidth="1"/>
-    <col min="24" max="24" width="5.28515625" customWidth="1"/>
-    <col min="25" max="25" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" customWidth="1"/>
+    <col min="24" max="24" width="5.26953125" customWidth="1"/>
+    <col min="25" max="25" width="4.453125" customWidth="1"/>
     <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" customWidth="1"/>
-    <col min="30" max="31" width="4.140625" customWidth="1"/>
-    <col min="32" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="5.5703125" customWidth="1"/>
-    <col min="34" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.26953125" customWidth="1"/>
+    <col min="28" max="28" width="4.7265625" customWidth="1"/>
+    <col min="29" max="29" width="4.54296875" customWidth="1"/>
+    <col min="30" max="31" width="4.1796875" customWidth="1"/>
+    <col min="32" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="5.54296875" customWidth="1"/>
+    <col min="34" max="34" width="4.453125" customWidth="1"/>
+    <col min="35" max="35" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -5699,7 +5737,7 @@
       <c r="O2" s="201"/>
       <c r="P2" s="202"/>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -5716,7 +5754,7 @@
       <c r="O3" s="204"/>
       <c r="P3" s="205"/>
     </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -5733,7 +5771,7 @@
       <c r="O4" s="207"/>
       <c r="P4" s="208"/>
     </row>
-    <row r="6" spans="2:16" ht="26.25">
+    <row r="6" spans="2:16" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>33</v>
       </c>
@@ -5752,8 +5790,8 @@
       <c r="O6" s="196"/>
       <c r="P6" s="196"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5764,7 +5802,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5772,7 +5810,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -5790,7 +5828,7 @@
       <c r="M10" s="179"/>
       <c r="N10" s="180"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5837,7 +5875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5856,7 +5894,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5875,7 +5913,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5894,7 +5932,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5913,7 +5951,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5932,7 +5970,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5951,7 +5989,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5970,7 +6008,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5989,7 +6027,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6008,7 +6046,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6027,7 +6065,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6046,7 +6084,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6065,7 +6103,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6084,7 +6122,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6103,7 +6141,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6122,10 +6160,10 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" thickBot="1">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="19.5" thickBot="1">
+    <row r="28" spans="2:16" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -6139,21 +6177,21 @@
       <c r="L28" s="198"/>
       <c r="M28" s="199"/>
     </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1">
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1">
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6163,7 +6201,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6177,7 +6215,7 @@
     <mergeCell ref="J10:N10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -6189,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6199,37 +6237,37 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="13" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="6" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="13" customWidth="1"/>
+    <col min="8" max="9" width="6.7265625" customWidth="1"/>
+    <col min="10" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.54296875" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" customWidth="1"/>
+    <col min="14" max="14" width="4.54296875" customWidth="1"/>
+    <col min="15" max="15" width="4.1796875" customWidth="1"/>
     <col min="16" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.7265625" customWidth="1"/>
+    <col min="19" max="19" width="5.26953125" customWidth="1"/>
+    <col min="20" max="20" width="4.453125" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" customWidth="1"/>
-    <col min="25" max="26" width="4.140625" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" customWidth="1"/>
+    <col min="22" max="22" width="4.26953125" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="26" width="4.1796875" customWidth="1"/>
+    <col min="27" max="27" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="5.54296875" customWidth="1"/>
+    <col min="29" max="29" width="4.453125" customWidth="1"/>
+    <col min="30" max="30" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -6243,7 +6281,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="202"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1">
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -6255,7 +6293,7 @@
       <c r="J3" s="204"/>
       <c r="K3" s="205"/>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -6267,7 +6305,7 @@
       <c r="J4" s="207"/>
       <c r="K4" s="208"/>
     </row>
-    <row r="6" spans="2:11" ht="26.25">
+    <row r="6" spans="2:11" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>32</v>
       </c>
@@ -6281,8 +6319,8 @@
       <c r="J6" s="196"/>
       <c r="K6" s="196"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6293,13 +6331,13 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -6310,7 +6348,7 @@
       <c r="H10" s="179"/>
       <c r="I10" s="180"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6342,7 +6380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6356,7 +6394,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6370,7 +6408,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6384,7 +6422,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6398,7 +6436,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6412,7 +6450,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6426,7 +6464,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6440,7 +6478,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6454,7 +6492,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6468,7 +6506,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6482,7 +6520,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6496,7 +6534,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6510,7 +6548,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6524,7 +6562,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6538,7 +6576,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6552,10 +6590,10 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1">
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="19.5" thickBot="1">
+    <row r="28" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -6563,23 +6601,23 @@
       <c r="G28" s="198"/>
       <c r="H28" s="199"/>
     </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1">
+    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1">
+    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6591,7 +6629,7 @@
     <mergeCell ref="E28:H28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -6603,7 +6641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6613,37 +6651,37 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="13" customWidth="1"/>
-    <col min="8" max="24" width="5.7109375" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" customWidth="1"/>
-    <col min="30" max="30" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="6" width="5.7265625" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="13" customWidth="1"/>
+    <col min="8" max="24" width="5.7265625" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" customWidth="1"/>
+    <col min="27" max="27" width="4.54296875" customWidth="1"/>
+    <col min="28" max="28" width="4.453125" customWidth="1"/>
+    <col min="29" max="29" width="4.54296875" customWidth="1"/>
+    <col min="30" max="30" width="4.1796875" customWidth="1"/>
     <col min="31" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="4.7109375" customWidth="1"/>
-    <col min="34" max="34" width="5.28515625" customWidth="1"/>
-    <col min="35" max="35" width="4.42578125" customWidth="1"/>
+    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="34" max="34" width="5.26953125" customWidth="1"/>
+    <col min="35" max="35" width="4.453125" customWidth="1"/>
     <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="37" max="37" width="4.28515625" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
-    <col min="39" max="39" width="4.5703125" customWidth="1"/>
-    <col min="40" max="41" width="4.140625" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" customWidth="1"/>
-    <col min="43" max="43" width="5.5703125" customWidth="1"/>
-    <col min="44" max="44" width="4.42578125" customWidth="1"/>
-    <col min="45" max="45" width="3.85546875" customWidth="1"/>
+    <col min="37" max="37" width="4.26953125" customWidth="1"/>
+    <col min="38" max="38" width="4.7265625" customWidth="1"/>
+    <col min="39" max="39" width="4.54296875" customWidth="1"/>
+    <col min="40" max="41" width="4.1796875" customWidth="1"/>
+    <col min="42" max="42" width="4.7265625" customWidth="1"/>
+    <col min="43" max="43" width="5.54296875" customWidth="1"/>
+    <col min="44" max="44" width="4.453125" customWidth="1"/>
+    <col min="45" max="45" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>37</v>
       </c>
@@ -6672,7 +6710,7 @@
       <c r="Y2" s="201"/>
       <c r="Z2" s="202"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -6699,7 +6737,7 @@
       <c r="Y3" s="204"/>
       <c r="Z3" s="205"/>
     </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -6726,7 +6764,7 @@
       <c r="Y4" s="207"/>
       <c r="Z4" s="208"/>
     </row>
-    <row r="6" spans="2:26" ht="26.25">
+    <row r="6" spans="2:26" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>38</v>
       </c>
@@ -6755,8 +6793,8 @@
       <c r="Y6" s="196"/>
       <c r="Z6" s="196"/>
     </row>
-    <row r="7" spans="2:26" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6767,7 +6805,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1">
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6779,7 +6817,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1">
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -6811,7 +6849,7 @@
       <c r="W10" s="179"/>
       <c r="X10" s="180"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1">
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6888,7 +6926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6917,7 +6955,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6946,7 +6984,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6975,7 +7013,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7004,7 +7042,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7033,7 +7071,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7062,7 +7100,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7091,7 +7129,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7120,7 +7158,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7149,7 +7187,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7178,7 +7216,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7207,7 +7245,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7236,7 +7274,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7265,7 +7303,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7294,7 +7332,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7323,10 +7361,10 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15.75" thickBot="1">
+    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="19.5" thickBot="1">
+    <row r="28" spans="2:26" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -7352,7 +7390,7 @@
       <c r="V28" s="198"/>
       <c r="W28" s="199"/>
     </row>
-    <row r="29" spans="2:26" ht="23.1" customHeight="1">
+    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7363,7 +7401,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.1" customHeight="1">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7374,7 +7412,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7392,25 +7430,25 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -7422,7 +7460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7432,37 +7470,37 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="13" customWidth="1"/>
-    <col min="8" max="34" width="5.28515625" customWidth="1"/>
-    <col min="35" max="36" width="8.85546875" customWidth="1"/>
-    <col min="37" max="37" width="4.5703125" customWidth="1"/>
-    <col min="38" max="38" width="4.42578125" customWidth="1"/>
-    <col min="39" max="39" width="4.5703125" customWidth="1"/>
-    <col min="40" max="40" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="5.26953125" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" style="13" customWidth="1"/>
+    <col min="8" max="34" width="5.26953125" customWidth="1"/>
+    <col min="35" max="36" width="8.81640625" customWidth="1"/>
+    <col min="37" max="37" width="4.54296875" customWidth="1"/>
+    <col min="38" max="38" width="4.453125" customWidth="1"/>
+    <col min="39" max="39" width="4.54296875" customWidth="1"/>
+    <col min="40" max="40" width="4.1796875" customWidth="1"/>
     <col min="41" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" customWidth="1"/>
-    <col min="44" max="44" width="5.28515625" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="4.7265625" customWidth="1"/>
+    <col min="44" max="44" width="5.26953125" customWidth="1"/>
+    <col min="45" max="45" width="4.453125" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
-    <col min="47" max="47" width="4.28515625" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" customWidth="1"/>
-    <col min="49" max="49" width="4.5703125" customWidth="1"/>
-    <col min="50" max="51" width="4.140625" customWidth="1"/>
-    <col min="52" max="52" width="4.7109375" customWidth="1"/>
-    <col min="53" max="53" width="5.5703125" customWidth="1"/>
-    <col min="54" max="54" width="4.42578125" customWidth="1"/>
-    <col min="55" max="55" width="3.85546875" customWidth="1"/>
+    <col min="47" max="47" width="4.26953125" customWidth="1"/>
+    <col min="48" max="48" width="4.7265625" customWidth="1"/>
+    <col min="49" max="49" width="4.54296875" customWidth="1"/>
+    <col min="50" max="51" width="4.1796875" customWidth="1"/>
+    <col min="52" max="52" width="4.7265625" customWidth="1"/>
+    <col min="53" max="53" width="5.54296875" customWidth="1"/>
+    <col min="54" max="54" width="4.453125" customWidth="1"/>
+    <col min="55" max="55" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -7501,7 +7539,7 @@
       <c r="AI2" s="201"/>
       <c r="AJ2" s="202"/>
     </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1">
+    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -7538,7 +7576,7 @@
       <c r="AI3" s="204"/>
       <c r="AJ3" s="205"/>
     </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -7575,7 +7613,7 @@
       <c r="AI4" s="207"/>
       <c r="AJ4" s="208"/>
     </row>
-    <row r="7" spans="2:36" ht="29.25" thickBot="1">
+    <row r="7" spans="2:36" ht="28" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="212" t="s">
         <v>35</v>
       </c>
@@ -7614,7 +7652,7 @@
       <c r="AI7" s="212"/>
       <c r="AJ7" s="212"/>
     </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
@@ -7625,7 +7663,7 @@
       <c r="H8" s="213"/>
       <c r="I8" s="214"/>
     </row>
-    <row r="9" spans="2:36" ht="15.75" thickBot="1">
+    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7637,7 +7675,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -7684,7 +7722,7 @@
       <c r="AG10" s="210"/>
       <c r="AH10" s="211"/>
     </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7791,7 +7829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7830,7 +7868,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7869,7 +7907,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7908,7 +7946,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7947,7 +7985,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7986,7 +8024,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8025,7 +8063,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8064,7 +8102,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8103,7 +8141,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8142,7 +8180,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8181,7 +8219,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8220,7 +8258,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8259,7 +8297,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8298,7 +8336,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8337,7 +8375,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="30.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8376,10 +8414,10 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15.75" thickBot="1">
+    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="19.5" thickBot="1">
+    <row r="28" spans="2:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -8417,7 +8455,7 @@
       <c r="AF28" s="198"/>
       <c r="AG28" s="199"/>
     </row>
-    <row r="29" spans="2:36" ht="23.1" customHeight="1">
+    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8432,7 +8470,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.1" customHeight="1">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8447,7 +8485,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8473,7 +8511,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8496,7 +8534,7 @@
     <mergeCell ref="D8:I8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -8508,7 +8546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8518,38 +8556,38 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="49" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="13" customWidth="1"/>
-    <col min="8" max="39" width="5.5703125" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.5703125" customWidth="1"/>
-    <col min="43" max="43" width="4.42578125" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" customWidth="1"/>
-    <col min="45" max="45" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="5" max="6" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="13" customWidth="1"/>
+    <col min="8" max="39" width="5.54296875" customWidth="1"/>
+    <col min="40" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.54296875" customWidth="1"/>
+    <col min="43" max="43" width="4.453125" customWidth="1"/>
+    <col min="44" max="44" width="4.54296875" customWidth="1"/>
+    <col min="45" max="45" width="4.1796875" customWidth="1"/>
     <col min="46" max="47" width="5" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" customWidth="1"/>
-    <col min="49" max="49" width="5.28515625" customWidth="1"/>
-    <col min="50" max="50" width="4.42578125" customWidth="1"/>
+    <col min="48" max="48" width="4.7265625" customWidth="1"/>
+    <col min="49" max="49" width="5.26953125" customWidth="1"/>
+    <col min="50" max="50" width="4.453125" customWidth="1"/>
     <col min="51" max="51" width="5" customWidth="1"/>
-    <col min="52" max="52" width="4.28515625" customWidth="1"/>
-    <col min="53" max="53" width="4.7109375" customWidth="1"/>
-    <col min="54" max="54" width="4.5703125" customWidth="1"/>
-    <col min="55" max="56" width="4.140625" customWidth="1"/>
-    <col min="57" max="57" width="4.7109375" customWidth="1"/>
-    <col min="58" max="58" width="5.5703125" customWidth="1"/>
-    <col min="59" max="59" width="4.42578125" customWidth="1"/>
-    <col min="60" max="60" width="3.85546875" customWidth="1"/>
+    <col min="52" max="52" width="4.26953125" customWidth="1"/>
+    <col min="53" max="53" width="4.7265625" customWidth="1"/>
+    <col min="54" max="54" width="4.54296875" customWidth="1"/>
+    <col min="55" max="56" width="4.1796875" customWidth="1"/>
+    <col min="57" max="57" width="4.7265625" customWidth="1"/>
+    <col min="58" max="58" width="5.54296875" customWidth="1"/>
+    <col min="59" max="59" width="4.453125" customWidth="1"/>
+    <col min="60" max="60" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="215" t="s">
         <v>28</v>
       </c>
@@ -8593,7 +8631,7 @@
       <c r="AN2" s="216"/>
       <c r="AO2" s="217"/>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1">
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="218"/>
       <c r="C3" s="219"/>
       <c r="D3" s="219"/>
@@ -8635,7 +8673,7 @@
       <c r="AN3" s="219"/>
       <c r="AO3" s="220"/>
     </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="221"/>
       <c r="C4" s="222"/>
       <c r="D4" s="222"/>
@@ -8677,7 +8715,7 @@
       <c r="AN4" s="222"/>
       <c r="AO4" s="223"/>
     </row>
-    <row r="6" spans="2:41" ht="30.75">
+    <row r="6" spans="2:41" ht="30" x14ac:dyDescent="0.6">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
@@ -8723,8 +8761,8 @@
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8735,7 +8773,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15.75" thickBot="1">
+    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8747,7 +8785,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -8801,7 +8839,7 @@
       <c r="AL10" s="210"/>
       <c r="AM10" s="211"/>
     </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -8923,7 +8961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -8967,7 +9005,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9011,7 +9049,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9055,7 +9093,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9099,7 +9137,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9143,7 +9181,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9187,7 +9225,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9231,7 +9269,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9275,7 +9313,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9319,7 +9357,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9363,7 +9401,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9407,7 +9445,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9451,7 +9489,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9495,7 +9533,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9539,7 +9577,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9583,10 +9621,10 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15.75" thickBot="1">
+    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="19.5" thickBot="1">
+    <row r="28" spans="2:41" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -9630,7 +9668,7 @@
       <c r="AK28" s="198"/>
       <c r="AL28" s="199"/>
     </row>
-    <row r="29" spans="2:41" ht="23.1" customHeight="1">
+    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9647,7 +9685,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.1" customHeight="1">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9664,7 +9702,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9694,12 +9732,19 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9709,16 +9754,9 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -9730,67 +9768,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" customWidth="1"/>
-    <col min="34" max="34" width="4.5703125" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" customWidth="1"/>
+    <col min="28" max="28" width="5.54296875" customWidth="1"/>
+    <col min="29" max="29" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.54296875" customWidth="1"/>
+    <col min="33" max="33" width="4.453125" customWidth="1"/>
+    <col min="34" max="34" width="4.54296875" customWidth="1"/>
+    <col min="35" max="35" width="4.1796875" customWidth="1"/>
     <col min="36" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" customWidth="1"/>
-    <col min="40" max="40" width="4.42578125" customWidth="1"/>
+    <col min="38" max="38" width="4.7265625" customWidth="1"/>
+    <col min="39" max="39" width="5.26953125" customWidth="1"/>
+    <col min="40" max="40" width="4.453125" customWidth="1"/>
     <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="4.28515625" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" customWidth="1"/>
-    <col min="45" max="46" width="4.140625" customWidth="1"/>
-    <col min="47" max="47" width="4.7109375" customWidth="1"/>
-    <col min="48" max="48" width="5.5703125" customWidth="1"/>
-    <col min="49" max="49" width="4.42578125" customWidth="1"/>
-    <col min="50" max="50" width="3.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.26953125" customWidth="1"/>
+    <col min="43" max="43" width="4.7265625" customWidth="1"/>
+    <col min="44" max="44" width="4.54296875" customWidth="1"/>
+    <col min="45" max="46" width="4.1796875" customWidth="1"/>
+    <col min="47" max="47" width="4.7265625" customWidth="1"/>
+    <col min="48" max="48" width="5.54296875" customWidth="1"/>
+    <col min="49" max="49" width="4.453125" customWidth="1"/>
+    <col min="50" max="50" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -9824,7 +9862,7 @@
       <c r="AD2" s="201"/>
       <c r="AE2" s="202"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -9856,7 +9894,7 @@
       <c r="AD3" s="204"/>
       <c r="AE3" s="205"/>
     </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -9888,7 +9926,7 @@
       <c r="AD4" s="207"/>
       <c r="AE4" s="208"/>
     </row>
-    <row r="6" spans="2:31" ht="26.25">
+    <row r="6" spans="2:31" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
@@ -9922,8 +9960,8 @@
       <c r="AD6" s="196"/>
       <c r="AE6" s="196"/>
     </row>
-    <row r="7" spans="2:31" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
+    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -9936,7 +9974,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15.75" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -9948,7 +9986,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15.75" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -9973,7 +10011,7 @@
       <c r="R10" s="179"/>
       <c r="S10" s="180"/>
     </row>
-    <row r="11" spans="2:31" ht="15.75" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10030,7 +10068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10085,13 +10123,15 @@
         <f>(AVERAGE(O12:Q12))</f>
         <v>8.5333333333333332</v>
       </c>
-      <c r="S12" s="106"/>
+      <c r="S12" s="106" t="s">
+        <v>63</v>
+      </c>
       <c r="T12" s="119">
         <f>AVERAGE(I12,N12,R12,S12)</f>
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10126,7 +10166,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10161,7 +10201,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="177">
         <v>4</v>
       </c>
@@ -10196,7 +10236,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="62">
         <v>7</v>
       </c>
@@ -10231,7 +10271,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="62">
         <v>9</v>
       </c>
@@ -10254,7 +10294,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>10</v>
       </c>
@@ -10277,7 +10317,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -10300,7 +10340,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -10323,7 +10363,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>13</v>
       </c>
@@ -10346,7 +10386,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>14</v>
       </c>
@@ -10369,7 +10409,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="82">
         <v>15</v>
       </c>
@@ -10392,7 +10432,7 @@
       <c r="S23" s="85"/>
       <c r="T23" s="93"/>
     </row>
-    <row r="24" spans="2:28" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="63">
         <v>16</v>
       </c>
@@ -10415,10 +10455,10 @@
       <c r="S24" s="28"/>
       <c r="T24" s="57"/>
     </row>
-    <row r="25" spans="2:28" ht="15.75" thickBot="1">
+    <row r="25" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:28" ht="19.5" thickBot="1">
+    <row r="26" spans="2:28" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="197" t="s">
         <v>23</v>
       </c>
@@ -10450,7 +10490,7 @@
       <c r="AA26" s="198"/>
       <c r="AB26" s="199"/>
     </row>
-    <row r="27" spans="2:28" ht="23.1" customHeight="1">
+    <row r="27" spans="2:28" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="41"/>
       <c r="G27"/>
       <c r="H27" s="42"/>
@@ -10463,7 +10503,7 @@
       <c r="Y27" s="41"/>
       <c r="AB27" s="42"/>
     </row>
-    <row r="28" spans="2:28" ht="23.1" customHeight="1">
+    <row r="28" spans="2:28" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="41"/>
       <c r="G28"/>
       <c r="H28" s="42"/>
@@ -10476,7 +10516,7 @@
       <c r="Y28" s="41"/>
       <c r="AB28" s="42"/>
     </row>
-    <row r="29" spans="2:28" ht="23.1" customHeight="1" thickBot="1">
+    <row r="29" spans="2:28" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -10498,25 +10538,25 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
       <c r="G30"/>
     </row>
   </sheetData>
-  <sortState ref="C12:AE15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:AE15">
     <sortCondition ref="C12:C15"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="B2:AE4"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="O26:R26"/>
     <mergeCell ref="T26:W26"/>
     <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="B2:AE4"/>
-    <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:T15">
@@ -10530,7 +10570,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:Q24 E12:H24">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:Q24 E12:H24" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -10542,7 +10582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10552,59 +10592,59 @@
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" customWidth="1"/>
-    <col min="34" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="35" width="4.5703125" customWidth="1"/>
-    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.81640625" customWidth="1"/>
+    <col min="32" max="32" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.54296875" customWidth="1"/>
+    <col min="34" max="34" width="4.453125" customWidth="1"/>
+    <col min="35" max="35" width="4.54296875" customWidth="1"/>
+    <col min="36" max="36" width="4.1796875" customWidth="1"/>
     <col min="37" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="4.7109375" customWidth="1"/>
-    <col min="40" max="40" width="5.28515625" customWidth="1"/>
-    <col min="41" max="41" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="4.7265625" customWidth="1"/>
+    <col min="40" max="40" width="5.26953125" customWidth="1"/>
+    <col min="41" max="41" width="4.453125" customWidth="1"/>
     <col min="42" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="4.28515625" customWidth="1"/>
-    <col min="44" max="44" width="4.7109375" customWidth="1"/>
-    <col min="45" max="45" width="4.5703125" customWidth="1"/>
-    <col min="46" max="47" width="4.140625" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" customWidth="1"/>
-    <col min="49" max="49" width="5.5703125" customWidth="1"/>
-    <col min="50" max="50" width="4.42578125" customWidth="1"/>
-    <col min="51" max="51" width="3.85546875" customWidth="1"/>
+    <col min="43" max="43" width="4.26953125" customWidth="1"/>
+    <col min="44" max="44" width="4.7265625" customWidth="1"/>
+    <col min="45" max="45" width="4.54296875" customWidth="1"/>
+    <col min="46" max="47" width="4.1796875" customWidth="1"/>
+    <col min="48" max="48" width="4.7265625" customWidth="1"/>
+    <col min="49" max="49" width="5.54296875" customWidth="1"/>
+    <col min="50" max="50" width="4.453125" customWidth="1"/>
+    <col min="51" max="51" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="224" t="s">
         <v>25</v>
       </c>
@@ -10639,7 +10679,7 @@
       <c r="AE2" s="201"/>
       <c r="AF2" s="202"/>
     </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1">
+    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -10672,7 +10712,7 @@
       <c r="AE3" s="204"/>
       <c r="AF3" s="205"/>
     </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -10705,7 +10745,7 @@
       <c r="AE4" s="207"/>
       <c r="AF4" s="208"/>
     </row>
-    <row r="6" spans="2:32" ht="26.25">
+    <row r="6" spans="2:32" ht="25" x14ac:dyDescent="0.5">
       <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
@@ -10740,8 +10780,8 @@
       <c r="AE6" s="196"/>
       <c r="AF6" s="196"/>
     </row>
-    <row r="7" spans="2:32" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
+    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10795,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15.75" thickBot="1">
+    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10771,7 +10811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15.75" thickBot="1">
+    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -10811,7 +10851,7 @@
       <c r="AC10" s="179"/>
       <c r="AD10" s="180"/>
     </row>
-    <row r="11" spans="2:32" ht="15.75" thickBot="1">
+    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10904,7 +10944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10995,7 +11035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11060,7 +11100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11143,7 +11183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11232,7 +11272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11323,7 +11363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11411,7 +11451,7 @@
         <v>4.2821354166666659</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11446,7 +11486,7 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11481,7 +11521,7 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11516,7 +11556,7 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="24"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11551,7 +11591,7 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="24"/>
     </row>
-    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11586,7 +11626,7 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="24"/>
     </row>
-    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -11621,7 +11661,7 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="24"/>
     </row>
-    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -11656,7 +11696,7 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="24"/>
     </row>
-    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -11691,7 +11731,7 @@
       <c r="AE25" s="27"/>
       <c r="AF25" s="24"/>
     </row>
-    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -11726,7 +11766,7 @@
       <c r="AE26" s="85"/>
       <c r="AF26" s="93"/>
     </row>
-    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -11761,10 +11801,10 @@
       <c r="AE27" s="28"/>
       <c r="AF27" s="57"/>
     </row>
-    <row r="28" spans="2:32" ht="15.75" thickBot="1">
+    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:32" ht="19.5" thickBot="1">
+    <row r="29" spans="2:32" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E29" s="197" t="s">
         <v>23</v>
       </c>
@@ -11797,7 +11837,7 @@
       <c r="AB29" s="198"/>
       <c r="AC29" s="199"/>
     </row>
-    <row r="30" spans="2:32" ht="23.1" customHeight="1">
+    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -11810,7 +11850,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:32" ht="23.1" customHeight="1">
+    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -11823,7 +11863,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:32" ht="23.1" customHeight="1" thickBot="1">
+    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -11846,11 +11886,11 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H33"/>
     </row>
   </sheetData>
-  <sortState ref="C13:E17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:E17">
     <sortCondition ref="C12:C17"/>
   </sortState>
   <dataConsolidate/>
@@ -11882,7 +11922,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 Z12:AC27 U12:X27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 Z12:AC27 U12:X27" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
